--- a/Code/Results/Cases/Case_4_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_29/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.006010842766571</v>
+      </c>
+      <c r="D2">
+        <v>1.025828207086206</v>
+      </c>
+      <c r="E2">
+        <v>1.014146342898142</v>
+      </c>
+      <c r="F2">
+        <v>1.029894624653995</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.045560252233945</v>
+      </c>
+      <c r="J2">
+        <v>1.028013244966056</v>
+      </c>
+      <c r="K2">
+        <v>1.036939069290401</v>
+      </c>
+      <c r="L2">
+        <v>1.025412052830009</v>
+      </c>
+      <c r="M2">
+        <v>1.040952616476623</v>
+      </c>
+      <c r="N2">
+        <v>1.029473141688675</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.014838892252399</v>
+      </c>
+      <c r="D3">
+        <v>1.032727434910328</v>
+      </c>
+      <c r="E3">
+        <v>1.022452700641881</v>
+      </c>
+      <c r="F3">
+        <v>1.037364302529577</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.048255960440296</v>
+      </c>
+      <c r="J3">
+        <v>1.034933048663885</v>
+      </c>
+      <c r="K3">
+        <v>1.042958010510126</v>
+      </c>
+      <c r="L3">
+        <v>1.032806134292816</v>
+      </c>
+      <c r="M3">
+        <v>1.047540419784678</v>
+      </c>
+      <c r="N3">
+        <v>1.036402772301467</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.02035698069904</v>
+      </c>
+      <c r="D4">
+        <v>1.037042294673836</v>
+      </c>
+      <c r="E4">
+        <v>1.027650857475643</v>
+      </c>
+      <c r="F4">
+        <v>1.042039257298241</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.049927360949811</v>
+      </c>
+      <c r="J4">
+        <v>1.039253908170757</v>
+      </c>
+      <c r="K4">
+        <v>1.046713298403363</v>
+      </c>
+      <c r="L4">
+        <v>1.037426633046199</v>
+      </c>
+      <c r="M4">
+        <v>1.051655459455441</v>
+      </c>
+      <c r="N4">
+        <v>1.040729767924449</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.022633302030419</v>
+      </c>
+      <c r="D5">
+        <v>1.038822687658024</v>
+      </c>
+      <c r="E5">
+        <v>1.029796589142074</v>
+      </c>
+      <c r="F5">
+        <v>1.04396903698848</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.050613502842093</v>
+      </c>
+      <c r="J5">
+        <v>1.041035195961843</v>
+      </c>
+      <c r="K5">
+        <v>1.048260655945994</v>
+      </c>
+      <c r="L5">
+        <v>1.039332290606486</v>
+      </c>
+      <c r="M5">
+        <v>1.05335220713584</v>
+      </c>
+      <c r="N5">
+        <v>1.042513585348515</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.023013038804591</v>
+      </c>
+      <c r="D6">
+        <v>1.039119714492863</v>
+      </c>
+      <c r="E6">
+        <v>1.030154620132397</v>
+      </c>
+      <c r="F6">
+        <v>1.044291033844953</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.050727766231161</v>
+      </c>
+      <c r="J6">
+        <v>1.041332280930349</v>
+      </c>
+      <c r="K6">
+        <v>1.04851867932811</v>
+      </c>
+      <c r="L6">
+        <v>1.039650167804011</v>
+      </c>
+      <c r="M6">
+        <v>1.053635209343819</v>
+      </c>
+      <c r="N6">
+        <v>1.042811092211752</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.020387564104478</v>
+      </c>
+      <c r="D7">
+        <v>1.037066213553931</v>
+      </c>
+      <c r="E7">
+        <v>1.027679680961617</v>
+      </c>
+      <c r="F7">
+        <v>1.042065179934522</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.049936592930656</v>
+      </c>
+      <c r="J7">
+        <v>1.0392778452496</v>
+      </c>
+      <c r="K7">
+        <v>1.046734095016478</v>
+      </c>
+      <c r="L7">
+        <v>1.037452238070024</v>
+      </c>
+      <c r="M7">
+        <v>1.051678259310047</v>
+      </c>
+      <c r="N7">
+        <v>1.040753738996689</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.009036461978741</v>
+      </c>
+      <c r="D8">
+        <v>1.028192158828142</v>
+      </c>
+      <c r="E8">
+        <v>1.016991802142973</v>
+      </c>
+      <c r="F8">
+        <v>1.032453334644075</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.046486969520189</v>
+      </c>
+      <c r="J8">
+        <v>1.030385743997331</v>
+      </c>
+      <c r="K8">
+        <v>1.039003324579081</v>
+      </c>
+      <c r="L8">
+        <v>1.027946424459808</v>
+      </c>
+      <c r="M8">
+        <v>1.043210941378559</v>
+      </c>
+      <c r="N8">
+        <v>1.031849009940704</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9873924954504901</v>
+      </c>
+      <c r="D9">
+        <v>1.011299128301605</v>
+      </c>
+      <c r="E9">
+        <v>0.9966678029978356</v>
+      </c>
+      <c r="F9">
+        <v>1.01418281553235</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.039802203350612</v>
+      </c>
+      <c r="J9">
+        <v>1.013398449477045</v>
+      </c>
+      <c r="K9">
+        <v>1.024211506928485</v>
+      </c>
+      <c r="L9">
+        <v>1.009815175116958</v>
+      </c>
+      <c r="M9">
+        <v>1.027049902332554</v>
+      </c>
+      <c r="N9">
+        <v>1.014837591513729</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9716085002390796</v>
+      </c>
+      <c r="D10">
+        <v>0.9990119526003103</v>
+      </c>
+      <c r="E10">
+        <v>0.9818923064038123</v>
+      </c>
+      <c r="F10">
+        <v>1.000911849004018</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.034860830254611</v>
+      </c>
+      <c r="J10">
+        <v>1.00099567647497</v>
+      </c>
+      <c r="K10">
+        <v>1.013399069492934</v>
+      </c>
+      <c r="L10">
+        <v>0.9965963828525772</v>
+      </c>
+      <c r="M10">
+        <v>1.015264659229599</v>
+      </c>
+      <c r="N10">
+        <v>1.002417205151374</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9643835510103884</v>
+      </c>
+      <c r="D11">
+        <v>0.9933988301845644</v>
+      </c>
+      <c r="E11">
+        <v>0.9751420742457669</v>
+      </c>
+      <c r="F11">
+        <v>0.9948535390248414</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.032584993741838</v>
+      </c>
+      <c r="J11">
+        <v>0.9953169284366989</v>
+      </c>
+      <c r="K11">
+        <v>1.008446317921639</v>
+      </c>
+      <c r="L11">
+        <v>0.9905485099060685</v>
+      </c>
+      <c r="M11">
+        <v>1.009873167088039</v>
+      </c>
+      <c r="N11">
+        <v>0.9967303926395263</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9616341164848101</v>
+      </c>
+      <c r="D12">
+        <v>0.9912648100197495</v>
+      </c>
+      <c r="E12">
+        <v>0.9725754771452759</v>
+      </c>
+      <c r="F12">
+        <v>0.9925508955507955</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.031717013083222</v>
+      </c>
+      <c r="J12">
+        <v>0.9931558687626177</v>
+      </c>
+      <c r="K12">
+        <v>1.006561298024302</v>
+      </c>
+      <c r="L12">
+        <v>0.9882476482775354</v>
+      </c>
+      <c r="M12">
+        <v>1.007822213815483</v>
+      </c>
+      <c r="N12">
+        <v>0.9945662640128309</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9622269834706481</v>
+      </c>
+      <c r="D13">
+        <v>0.9917248755920235</v>
+      </c>
+      <c r="E13">
+        <v>0.973128816070735</v>
+      </c>
+      <c r="F13">
+        <v>0.9930472856952061</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.031904261026659</v>
+      </c>
+      <c r="J13">
+        <v>0.9936218608167878</v>
+      </c>
+      <c r="K13">
+        <v>1.006967776599542</v>
+      </c>
+      <c r="L13">
+        <v>0.9887437559373732</v>
+      </c>
+      <c r="M13">
+        <v>1.008264425853374</v>
+      </c>
+      <c r="N13">
+        <v>0.995032917829168</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9641576690980181</v>
+      </c>
+      <c r="D14">
+        <v>0.9932234646298387</v>
+      </c>
+      <c r="E14">
+        <v>0.9749311678799206</v>
+      </c>
+      <c r="F14">
+        <v>0.9946643039381666</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.032513721788883</v>
+      </c>
+      <c r="J14">
+        <v>0.9951393842173337</v>
+      </c>
+      <c r="K14">
+        <v>1.008291456377953</v>
+      </c>
+      <c r="L14">
+        <v>0.9903594665970671</v>
+      </c>
+      <c r="M14">
+        <v>1.009704652073515</v>
+      </c>
+      <c r="N14">
+        <v>0.9965525962870052</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9653382796228727</v>
+      </c>
+      <c r="D15">
+        <v>0.9941401276438232</v>
+      </c>
+      <c r="E15">
+        <v>0.9760335961327326</v>
+      </c>
+      <c r="F15">
+        <v>0.9956534906676394</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.032886160269728</v>
+      </c>
+      <c r="J15">
+        <v>0.9960673496465247</v>
+      </c>
+      <c r="K15">
+        <v>1.009100857707271</v>
+      </c>
+      <c r="L15">
+        <v>0.9913475610973627</v>
+      </c>
+      <c r="M15">
+        <v>1.010585457575841</v>
+      </c>
+      <c r="N15">
+        <v>0.9974818795335446</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9720791913137424</v>
+      </c>
+      <c r="D16">
+        <v>0.9993778955093213</v>
+      </c>
+      <c r="E16">
+        <v>0.9823323576765133</v>
+      </c>
+      <c r="F16">
+        <v>1.001306902313585</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.035008823323382</v>
+      </c>
+      <c r="J16">
+        <v>1.001365620429897</v>
+      </c>
+      <c r="K16">
+        <v>1.013721680533743</v>
+      </c>
+      <c r="L16">
+        <v>0.9969904656793472</v>
+      </c>
+      <c r="M16">
+        <v>1.015615991768469</v>
+      </c>
+      <c r="N16">
+        <v>1.00278767446915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9761984151302221</v>
+      </c>
+      <c r="D17">
+        <v>1.002581714572212</v>
+      </c>
+      <c r="E17">
+        <v>0.9861849292584413</v>
+      </c>
+      <c r="F17">
+        <v>1.004766056690339</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.036302427372942</v>
+      </c>
+      <c r="J17">
+        <v>1.004603012708114</v>
+      </c>
+      <c r="K17">
+        <v>1.016544627900048</v>
+      </c>
+      <c r="L17">
+        <v>1.000439601708789</v>
+      </c>
+      <c r="M17">
+        <v>1.018691032557557</v>
+      </c>
+      <c r="N17">
+        <v>1.006029664215735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9785639627200513</v>
+      </c>
+      <c r="D18">
+        <v>1.004422591721161</v>
+      </c>
+      <c r="E18">
+        <v>0.9883985518435123</v>
+      </c>
+      <c r="F18">
+        <v>1.006754042570572</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.03704398872745</v>
+      </c>
+      <c r="J18">
+        <v>1.006461995020022</v>
+      </c>
+      <c r="K18">
+        <v>1.018165419656774</v>
+      </c>
+      <c r="L18">
+        <v>1.00242059206527</v>
+      </c>
+      <c r="M18">
+        <v>1.020457202037201</v>
+      </c>
+      <c r="N18">
+        <v>1.007891286495754</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9793644530419684</v>
+      </c>
+      <c r="D19">
+        <v>1.005045699279703</v>
+      </c>
+      <c r="E19">
+        <v>0.9891478300289536</v>
+      </c>
+      <c r="F19">
+        <v>1.007427011455422</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.037294701297433</v>
+      </c>
+      <c r="J19">
+        <v>1.007091034207565</v>
+      </c>
+      <c r="K19">
+        <v>1.018713822921799</v>
+      </c>
+      <c r="L19">
+        <v>1.003090987564673</v>
+      </c>
+      <c r="M19">
+        <v>1.021054902395439</v>
+      </c>
+      <c r="N19">
+        <v>1.008521218991096</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9757603491056441</v>
+      </c>
+      <c r="D20">
+        <v>1.00224089046499</v>
+      </c>
+      <c r="E20">
+        <v>0.9857750939656702</v>
+      </c>
+      <c r="F20">
+        <v>1.004398028710902</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.03616499262923</v>
+      </c>
+      <c r="J20">
+        <v>1.0042587414831</v>
+      </c>
+      <c r="K20">
+        <v>1.016244450631068</v>
+      </c>
+      <c r="L20">
+        <v>1.000072769529599</v>
+      </c>
+      <c r="M20">
+        <v>1.018363982424301</v>
+      </c>
+      <c r="N20">
+        <v>1.005684904086094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9635910091614518</v>
+      </c>
+      <c r="D21">
+        <v>0.9927835668684718</v>
+      </c>
+      <c r="E21">
+        <v>0.9744021123220258</v>
+      </c>
+      <c r="F21">
+        <v>0.9941896250842099</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.032334894882015</v>
+      </c>
+      <c r="J21">
+        <v>0.9946939871968379</v>
+      </c>
+      <c r="K21">
+        <v>1.007902958801404</v>
+      </c>
+      <c r="L21">
+        <v>0.9898852330626416</v>
+      </c>
+      <c r="M21">
+        <v>1.009281919310155</v>
+      </c>
+      <c r="N21">
+        <v>0.9961065667516524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9555546629686671</v>
+      </c>
+      <c r="D22">
+        <v>0.9865503537286167</v>
+      </c>
+      <c r="E22">
+        <v>0.9669046232444755</v>
+      </c>
+      <c r="F22">
+        <v>0.9874650758908493</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.029794445556752</v>
+      </c>
+      <c r="J22">
+        <v>0.9883776090267797</v>
+      </c>
+      <c r="K22">
+        <v>1.002393043650922</v>
+      </c>
+      <c r="L22">
+        <v>0.9831615062436156</v>
+      </c>
+      <c r="M22">
+        <v>1.003289010152277</v>
+      </c>
+      <c r="N22">
+        <v>0.9897812186000942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9598540933468762</v>
+      </c>
+      <c r="D23">
+        <v>0.9898838390072604</v>
+      </c>
+      <c r="E23">
+        <v>0.9709144721840728</v>
+      </c>
+      <c r="F23">
+        <v>0.9910609815553415</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.031154554558797</v>
+      </c>
+      <c r="J23">
+        <v>0.9917567879178952</v>
+      </c>
+      <c r="K23">
+        <v>1.00534087073904</v>
+      </c>
+      <c r="L23">
+        <v>0.9867582468080134</v>
+      </c>
+      <c r="M23">
+        <v>1.006494654944869</v>
+      </c>
+      <c r="N23">
+        <v>0.993165196312832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9759584064931256</v>
+      </c>
+      <c r="D24">
+        <v>1.002394979919005</v>
+      </c>
+      <c r="E24">
+        <v>0.9859603840067153</v>
+      </c>
+      <c r="F24">
+        <v>1.004564416032961</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.036227133413888</v>
+      </c>
+      <c r="J24">
+        <v>1.004414393083478</v>
+      </c>
+      <c r="K24">
+        <v>1.016380167161498</v>
+      </c>
+      <c r="L24">
+        <v>1.00023862006129</v>
+      </c>
+      <c r="M24">
+        <v>1.018511846763341</v>
+      </c>
+      <c r="N24">
+        <v>1.005840776729598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9932061871409573</v>
+      </c>
+      <c r="D25">
+        <v>1.015832280473367</v>
+      </c>
+      <c r="E25">
+        <v>1.002119820473984</v>
+      </c>
+      <c r="F25">
+        <v>1.019082523075722</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.04160950819226</v>
+      </c>
+      <c r="J25">
+        <v>1.017964373474493</v>
+      </c>
+      <c r="K25">
+        <v>1.028189693484687</v>
+      </c>
+      <c r="L25">
+        <v>1.014685317848227</v>
+      </c>
+      <c r="M25">
+        <v>1.031391657488874</v>
+      </c>
+      <c r="N25">
+        <v>1.019409999646973</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_29/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006010842766571</v>
+        <v>1.048554267743949</v>
       </c>
       <c r="D2">
-        <v>1.025828207086206</v>
+        <v>1.059806927743077</v>
       </c>
       <c r="E2">
-        <v>1.014146342898142</v>
+        <v>1.056437128462046</v>
       </c>
       <c r="F2">
-        <v>1.029894624653995</v>
+        <v>1.065837269076451</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045560252233945</v>
+        <v>1.072747696428022</v>
       </c>
       <c r="J2">
-        <v>1.028013244966056</v>
+        <v>1.069373744636371</v>
       </c>
       <c r="K2">
-        <v>1.036939069290401</v>
+        <v>1.070491497050999</v>
       </c>
       <c r="L2">
-        <v>1.025412052830009</v>
+        <v>1.0671624525807</v>
       </c>
       <c r="M2">
-        <v>1.040952616476623</v>
+        <v>1.076449703892011</v>
       </c>
       <c r="N2">
-        <v>1.029473141688675</v>
+        <v>1.070892378012638</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014838892252399</v>
+        <v>1.05685138539391</v>
       </c>
       <c r="D3">
-        <v>1.032727434910328</v>
+        <v>1.066664047708536</v>
       </c>
       <c r="E3">
-        <v>1.022452700641881</v>
+        <v>1.064263810632462</v>
       </c>
       <c r="F3">
-        <v>1.037364302529577</v>
+        <v>1.073253934157604</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048255960440296</v>
+        <v>1.076743269308908</v>
       </c>
       <c r="J3">
-        <v>1.034933048663885</v>
+        <v>1.07590369559818</v>
       </c>
       <c r="K3">
-        <v>1.042958010510126</v>
+        <v>1.07650950015195</v>
       </c>
       <c r="L3">
-        <v>1.032806134292816</v>
+        <v>1.074135509972443</v>
       </c>
       <c r="M3">
-        <v>1.047540419784678</v>
+        <v>1.083028065186331</v>
       </c>
       <c r="N3">
-        <v>1.036402772301467</v>
+        <v>1.077431602253809</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02035698069904</v>
+        <v>1.062034828185426</v>
       </c>
       <c r="D4">
-        <v>1.037042294673836</v>
+        <v>1.070945394400907</v>
       </c>
       <c r="E4">
-        <v>1.027650857475643</v>
+        <v>1.069157395854991</v>
       </c>
       <c r="F4">
-        <v>1.042039257298241</v>
+        <v>1.077890148164698</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049927360949811</v>
+        <v>1.079224322400418</v>
       </c>
       <c r="J4">
-        <v>1.039253908170757</v>
+        <v>1.079974597339109</v>
       </c>
       <c r="K4">
-        <v>1.046713298403363</v>
+        <v>1.080256822168595</v>
       </c>
       <c r="L4">
-        <v>1.037426633046199</v>
+        <v>1.078487092494927</v>
       </c>
       <c r="M4">
-        <v>1.051655459455441</v>
+        <v>1.087131317273014</v>
       </c>
       <c r="N4">
-        <v>1.040729767924449</v>
+        <v>1.081508285142149</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022633302030419</v>
+        <v>1.064172351502263</v>
       </c>
       <c r="D5">
-        <v>1.038822687658024</v>
+        <v>1.072710248454349</v>
       </c>
       <c r="E5">
-        <v>1.029796589142074</v>
+        <v>1.071176301767321</v>
       </c>
       <c r="F5">
-        <v>1.04396903698848</v>
+        <v>1.079802605291908</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050613502842093</v>
+        <v>1.080243791641447</v>
       </c>
       <c r="J5">
-        <v>1.041035195961843</v>
+        <v>1.081651249943095</v>
       </c>
       <c r="K5">
-        <v>1.048260655945994</v>
+        <v>1.081799135963117</v>
       </c>
       <c r="L5">
-        <v>1.039332290606486</v>
+        <v>1.080280410567369</v>
       </c>
       <c r="M5">
-        <v>1.05335220713584</v>
+        <v>1.088821797403586</v>
       </c>
       <c r="N5">
-        <v>1.042513585348515</v>
+        <v>1.083187318785147</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023013038804591</v>
+        <v>1.064528887601442</v>
       </c>
       <c r="D6">
-        <v>1.039119714492863</v>
+        <v>1.073004582621672</v>
       </c>
       <c r="E6">
-        <v>1.030154620132397</v>
+        <v>1.071513104792621</v>
       </c>
       <c r="F6">
-        <v>1.044291033844953</v>
+        <v>1.080121633641114</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050727766231161</v>
+        <v>1.080413621764522</v>
       </c>
       <c r="J6">
-        <v>1.041332280930349</v>
+        <v>1.081930789645224</v>
       </c>
       <c r="K6">
-        <v>1.04851867932811</v>
+        <v>1.082056214961412</v>
       </c>
       <c r="L6">
-        <v>1.039650167804011</v>
+        <v>1.08057946384858</v>
       </c>
       <c r="M6">
-        <v>1.053635209343819</v>
+        <v>1.089103671663899</v>
       </c>
       <c r="N6">
-        <v>1.042811092211752</v>
+        <v>1.083467255465717</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020387564104478</v>
+        <v>1.062063549850128</v>
       </c>
       <c r="D7">
-        <v>1.037066213553931</v>
+        <v>1.070969111281986</v>
       </c>
       <c r="E7">
-        <v>1.027679680961617</v>
+        <v>1.069184520125094</v>
       </c>
       <c r="F7">
-        <v>1.042065179934522</v>
+        <v>1.07791584337134</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049936592930656</v>
+        <v>1.079238035423624</v>
       </c>
       <c r="J7">
-        <v>1.0392778452496</v>
+        <v>1.079997134648214</v>
       </c>
       <c r="K7">
-        <v>1.046734095016478</v>
+        <v>1.080277557961127</v>
       </c>
       <c r="L7">
-        <v>1.037452238070024</v>
+        <v>1.078511193789134</v>
       </c>
       <c r="M7">
-        <v>1.051678259310047</v>
+        <v>1.087154038474619</v>
       </c>
       <c r="N7">
-        <v>1.040753738996689</v>
+        <v>1.081530854456817</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009036461978741</v>
+        <v>1.051398455265574</v>
       </c>
       <c r="D8">
-        <v>1.028192158828142</v>
+        <v>1.062157977286657</v>
       </c>
       <c r="E8">
-        <v>1.016991802142973</v>
+        <v>1.059119163298411</v>
       </c>
       <c r="F8">
-        <v>1.032453334644075</v>
+        <v>1.06837899781994</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046486969520189</v>
+        <v>1.074120522883255</v>
       </c>
       <c r="J8">
-        <v>1.030385743997331</v>
+        <v>1.071613946747513</v>
       </c>
       <c r="K8">
-        <v>1.039003324579081</v>
+        <v>1.072557000390669</v>
       </c>
       <c r="L8">
-        <v>1.027946424459808</v>
+        <v>1.069553726475812</v>
       </c>
       <c r="M8">
-        <v>1.043210941378559</v>
+        <v>1.078706042447276</v>
       </c>
       <c r="N8">
-        <v>1.031849009940704</v>
+        <v>1.073135761467732</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9873924954504901</v>
+        <v>1.031044483877331</v>
       </c>
       <c r="D9">
-        <v>1.011299128301605</v>
+        <v>1.045325501544296</v>
       </c>
       <c r="E9">
-        <v>0.9966678029978356</v>
+        <v>1.039945922775897</v>
       </c>
       <c r="F9">
-        <v>1.01418281553235</v>
+        <v>1.050205538757702</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039802203350612</v>
+        <v>1.06423167821711</v>
       </c>
       <c r="J9">
-        <v>1.013398449477045</v>
+        <v>1.055546675722681</v>
       </c>
       <c r="K9">
-        <v>1.024211506928485</v>
+        <v>1.057723645873617</v>
       </c>
       <c r="L9">
-        <v>1.009815175116958</v>
+        <v>1.052422524075626</v>
       </c>
       <c r="M9">
-        <v>1.027049902332554</v>
+        <v>1.062533391816092</v>
       </c>
       <c r="N9">
-        <v>1.014837591513729</v>
+        <v>1.057045673075103</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9716085002390796</v>
+        <v>1.01619729740849</v>
       </c>
       <c r="D10">
-        <v>0.9990119526003103</v>
+        <v>1.033041640591737</v>
       </c>
       <c r="E10">
-        <v>0.9818923064038123</v>
+        <v>1.025989720956176</v>
       </c>
       <c r="F10">
-        <v>1.000911849004018</v>
+        <v>1.036974453637588</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034860830254611</v>
+        <v>1.056937109077979</v>
       </c>
       <c r="J10">
-        <v>1.00099567647497</v>
+        <v>1.043782696653319</v>
       </c>
       <c r="K10">
-        <v>1.013399069492934</v>
+        <v>1.046838889254994</v>
       </c>
       <c r="L10">
-        <v>0.9965963828525772</v>
+        <v>1.039905060100992</v>
       </c>
       <c r="M10">
-        <v>1.015264659229599</v>
+        <v>1.05070674124799</v>
       </c>
       <c r="N10">
-        <v>1.002417205151374</v>
+        <v>1.045264987806116</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9643835510103884</v>
+        <v>1.009402795983112</v>
       </c>
       <c r="D11">
-        <v>0.9933988301845644</v>
+        <v>1.027420520032666</v>
       </c>
       <c r="E11">
-        <v>0.9751420742457669</v>
+        <v>1.01961135102073</v>
       </c>
       <c r="F11">
-        <v>0.9948535390248414</v>
+        <v>1.030927436601504</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032584993741838</v>
+        <v>1.05358027587891</v>
       </c>
       <c r="J11">
-        <v>0.9953169284366989</v>
+        <v>1.038389572604479</v>
       </c>
       <c r="K11">
-        <v>1.008446317921639</v>
+        <v>1.04184321203937</v>
       </c>
       <c r="L11">
-        <v>0.9905485099060685</v>
+        <v>1.034172666269923</v>
       </c>
       <c r="M11">
-        <v>1.009873167088039</v>
+        <v>1.045288760870295</v>
       </c>
       <c r="N11">
-        <v>0.9967303926395263</v>
+        <v>1.039864204902526</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9616341164848101</v>
+        <v>1.006817698891075</v>
       </c>
       <c r="D12">
-        <v>0.9912648100197495</v>
+        <v>1.025282070023643</v>
       </c>
       <c r="E12">
-        <v>0.9725754771452759</v>
+        <v>1.01718597226503</v>
       </c>
       <c r="F12">
-        <v>0.9925508955507955</v>
+        <v>1.028628106454154</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031717013083222</v>
+        <v>1.052300374495378</v>
       </c>
       <c r="J12">
-        <v>0.9931558687626177</v>
+        <v>1.036336298122376</v>
       </c>
       <c r="K12">
-        <v>1.006561298024302</v>
+        <v>1.039940421831796</v>
       </c>
       <c r="L12">
-        <v>0.9882476482775354</v>
+        <v>1.031991160267393</v>
       </c>
       <c r="M12">
-        <v>1.007822213815483</v>
+        <v>1.043226648504814</v>
       </c>
       <c r="N12">
-        <v>0.9945662640128309</v>
+        <v>1.037808014535145</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9622269834706481</v>
+        <v>1.007375100096336</v>
       </c>
       <c r="D13">
-        <v>0.9917248755920235</v>
+        <v>1.025743152311352</v>
       </c>
       <c r="E13">
-        <v>0.973128816070735</v>
+        <v>1.017708869690048</v>
       </c>
       <c r="F13">
-        <v>0.9930472856952061</v>
+        <v>1.0291238251869</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031904261026659</v>
+        <v>1.052576470022026</v>
       </c>
       <c r="J13">
-        <v>0.9936218608167878</v>
+        <v>1.0367790869833</v>
       </c>
       <c r="K13">
-        <v>1.006967776599542</v>
+        <v>1.040350796016576</v>
       </c>
       <c r="L13">
-        <v>0.9887437559373732</v>
+        <v>1.032461559910986</v>
       </c>
       <c r="M13">
-        <v>1.008264425853374</v>
+        <v>1.043671314293102</v>
       </c>
       <c r="N13">
-        <v>0.995032917829168</v>
+        <v>1.03825143220704</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9641576690980181</v>
+        <v>1.009190402687397</v>
       </c>
       <c r="D14">
-        <v>0.9932234646298387</v>
+        <v>1.027244818246558</v>
       </c>
       <c r="E14">
-        <v>0.9749311678799206</v>
+        <v>1.019412051259991</v>
       </c>
       <c r="F14">
-        <v>0.9946643039381666</v>
+        <v>1.030738493178343</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032513721788883</v>
+        <v>1.053475173171273</v>
       </c>
       <c r="J14">
-        <v>0.9951393842173337</v>
+        <v>1.038220901177652</v>
       </c>
       <c r="K14">
-        <v>1.008291456377953</v>
+        <v>1.041686919276605</v>
       </c>
       <c r="L14">
-        <v>0.9903594665970671</v>
+        <v>1.033993441944549</v>
       </c>
       <c r="M14">
-        <v>1.009704652073515</v>
+        <v>1.045119350504486</v>
       </c>
       <c r="N14">
-        <v>0.9965525962870052</v>
+        <v>1.039695293942926</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9653382796228727</v>
+        <v>1.010300536081842</v>
       </c>
       <c r="D15">
-        <v>0.9941401276438232</v>
+        <v>1.0281631827553</v>
       </c>
       <c r="E15">
-        <v>0.9760335961327326</v>
+        <v>1.020453804938263</v>
       </c>
       <c r="F15">
-        <v>0.9956534906676394</v>
+        <v>1.031726116018447</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032886160269728</v>
+        <v>1.054024411786732</v>
       </c>
       <c r="J15">
-        <v>0.9960673496465247</v>
+        <v>1.039102455358311</v>
       </c>
       <c r="K15">
-        <v>1.009100857707271</v>
+        <v>1.042503743240153</v>
       </c>
       <c r="L15">
-        <v>0.9913475610973627</v>
+        <v>1.034930188401278</v>
       </c>
       <c r="M15">
-        <v>1.010585457575841</v>
+        <v>1.046004792348559</v>
       </c>
       <c r="N15">
-        <v>0.9974818795335446</v>
+        <v>1.040578100031637</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9720791913137424</v>
+        <v>1.016640001734598</v>
       </c>
       <c r="D16">
-        <v>0.9993778955093213</v>
+        <v>1.033407911639836</v>
       </c>
       <c r="E16">
-        <v>0.9823323576765133</v>
+        <v>1.026405495194975</v>
       </c>
       <c r="F16">
-        <v>1.001306902313585</v>
+        <v>1.037368632371341</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035008823323382</v>
+        <v>1.057155449583003</v>
       </c>
       <c r="J16">
-        <v>1.001365620429897</v>
+        <v>1.044133901593991</v>
       </c>
       <c r="K16">
-        <v>1.013721680533743</v>
+        <v>1.04716409735473</v>
       </c>
       <c r="L16">
-        <v>0.9969904656793472</v>
+        <v>1.040278486192981</v>
       </c>
       <c r="M16">
-        <v>1.015615991768469</v>
+        <v>1.051059648086848</v>
       </c>
       <c r="N16">
-        <v>1.00278767446915</v>
+        <v>1.045616691498088</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9761984151302221</v>
+        <v>1.020514511125937</v>
       </c>
       <c r="D17">
-        <v>1.002581714572212</v>
+        <v>1.036613537480343</v>
       </c>
       <c r="E17">
-        <v>0.9861849292584413</v>
+        <v>1.030045269706283</v>
       </c>
       <c r="F17">
-        <v>1.004766056690339</v>
+        <v>1.040819356253394</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036302427372942</v>
+        <v>1.05906426451315</v>
       </c>
       <c r="J17">
-        <v>1.004603012708114</v>
+        <v>1.047206549657674</v>
       </c>
       <c r="K17">
-        <v>1.016544627900048</v>
+        <v>1.050008673142572</v>
       </c>
       <c r="L17">
-        <v>1.000439601708789</v>
+        <v>1.043546235656776</v>
       </c>
       <c r="M17">
-        <v>1.018691032557557</v>
+        <v>1.05414762452296</v>
       </c>
       <c r="N17">
-        <v>1.006029664215735</v>
+        <v>1.048693703074458</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9785639627200513</v>
+        <v>1.022739657528773</v>
       </c>
       <c r="D18">
-        <v>1.004422591721161</v>
+        <v>1.038454560507601</v>
       </c>
       <c r="E18">
-        <v>0.9883985518435123</v>
+        <v>1.032136380521909</v>
       </c>
       <c r="F18">
-        <v>1.006754042570572</v>
+        <v>1.0428018459441</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03704398872745</v>
+        <v>1.060158761614958</v>
       </c>
       <c r="J18">
-        <v>1.006461995020022</v>
+        <v>1.048970283357776</v>
       </c>
       <c r="K18">
-        <v>1.018165419656774</v>
+        <v>1.051640965333065</v>
       </c>
       <c r="L18">
-        <v>1.00242059206527</v>
+        <v>1.045422533273082</v>
       </c>
       <c r="M18">
-        <v>1.020457202037201</v>
+        <v>1.055920515023295</v>
       </c>
       <c r="N18">
-        <v>1.007891286495754</v>
+        <v>1.050459941478717</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9793644530419684</v>
+        <v>1.023492651615922</v>
       </c>
       <c r="D19">
-        <v>1.005045699279703</v>
+        <v>1.039077565311957</v>
       </c>
       <c r="E19">
-        <v>0.9891478300289536</v>
+        <v>1.032844144327326</v>
       </c>
       <c r="F19">
-        <v>1.007427011455422</v>
+        <v>1.043472842508395</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037294701297433</v>
+        <v>1.060528844160756</v>
       </c>
       <c r="J19">
-        <v>1.007091034207565</v>
+        <v>1.049566979475687</v>
       </c>
       <c r="K19">
-        <v>1.018713822921799</v>
+        <v>1.052193103421631</v>
       </c>
       <c r="L19">
-        <v>1.003090987564673</v>
+        <v>1.046057408386611</v>
       </c>
       <c r="M19">
-        <v>1.021054902395439</v>
+        <v>1.056520368600826</v>
       </c>
       <c r="N19">
-        <v>1.008521218991096</v>
+        <v>1.051057484973557</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9757603491056441</v>
+        <v>1.020102454248212</v>
       </c>
       <c r="D20">
-        <v>1.00224089046499</v>
+        <v>1.036272613791918</v>
       </c>
       <c r="E20">
-        <v>0.9857750939656702</v>
+        <v>1.029658095685664</v>
       </c>
       <c r="F20">
-        <v>1.004398028710902</v>
+        <v>1.040452292621924</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03616499262923</v>
+        <v>1.058861441583713</v>
       </c>
       <c r="J20">
-        <v>1.0042587414831</v>
+        <v>1.046879864473317</v>
       </c>
       <c r="K20">
-        <v>1.016244450631068</v>
+        <v>1.049706291300222</v>
       </c>
       <c r="L20">
-        <v>1.000072769529599</v>
+        <v>1.043198747453902</v>
       </c>
       <c r="M20">
-        <v>1.018363982424301</v>
+        <v>1.053819272062612</v>
       </c>
       <c r="N20">
-        <v>1.005684904086094</v>
+        <v>1.048366553959668</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9635910091614518</v>
+        <v>1.008657590679627</v>
       </c>
       <c r="D21">
-        <v>0.9927835668684718</v>
+        <v>1.026804054938114</v>
       </c>
       <c r="E21">
-        <v>0.9744021123220258</v>
+        <v>1.018912108684698</v>
       </c>
       <c r="F21">
-        <v>0.9941896250842099</v>
+        <v>1.030264530471187</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032334894882015</v>
+        <v>1.05321146784298</v>
       </c>
       <c r="J21">
-        <v>0.9946939871968379</v>
+        <v>1.037797748796838</v>
       </c>
       <c r="K21">
-        <v>1.007902958801404</v>
+        <v>1.041294808409849</v>
       </c>
       <c r="L21">
-        <v>0.9898852330626416</v>
+        <v>1.033543830165262</v>
       </c>
       <c r="M21">
-        <v>1.009281919310155</v>
+        <v>1.044694354519486</v>
       </c>
       <c r="N21">
-        <v>0.9961065667516524</v>
+        <v>1.039271540637195</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9555546629686671</v>
+        <v>1.001102990619926</v>
       </c>
       <c r="D22">
-        <v>0.9865503537286167</v>
+        <v>1.02055533116049</v>
       </c>
       <c r="E22">
-        <v>0.9669046232444755</v>
+        <v>1.011827084473943</v>
       </c>
       <c r="F22">
-        <v>0.9874650758908493</v>
+        <v>1.023547891982372</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029794445556752</v>
+        <v>1.049466014878533</v>
       </c>
       <c r="J22">
-        <v>0.9883776090267797</v>
+        <v>1.031794848396608</v>
       </c>
       <c r="K22">
-        <v>1.002393043650922</v>
+        <v>1.035730292593013</v>
       </c>
       <c r="L22">
-        <v>0.9831615062436156</v>
+        <v>1.027167829980183</v>
       </c>
       <c r="M22">
-        <v>1.003289010152277</v>
+        <v>1.038666862066329</v>
       </c>
       <c r="N22">
-        <v>0.9897812186000942</v>
+        <v>1.033260115429855</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9598540933468762</v>
+        <v>1.005144262318764</v>
       </c>
       <c r="D23">
-        <v>0.9898838390072604</v>
+        <v>1.023897848283422</v>
       </c>
       <c r="E23">
-        <v>0.9709144721840728</v>
+        <v>1.015616338928693</v>
       </c>
       <c r="F23">
-        <v>0.9910609815553415</v>
+        <v>1.027140070664755</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031154554558797</v>
+        <v>1.051471082759795</v>
       </c>
       <c r="J23">
-        <v>0.9917567879178952</v>
+        <v>1.035006760116572</v>
       </c>
       <c r="K23">
-        <v>1.00534087073904</v>
+        <v>1.038708092798442</v>
       </c>
       <c r="L23">
-        <v>0.9867582468080134</v>
+        <v>1.030578854884319</v>
       </c>
       <c r="M23">
-        <v>1.006494654944869</v>
+        <v>1.041891570156218</v>
       </c>
       <c r="N23">
-        <v>0.993165196312832</v>
+        <v>1.036476588432873</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9759584064931256</v>
+        <v>1.020288752052769</v>
       </c>
       <c r="D24">
-        <v>1.002394979919005</v>
+        <v>1.036426751044183</v>
       </c>
       <c r="E24">
-        <v>0.9859603840067153</v>
+        <v>1.029833141137691</v>
       </c>
       <c r="F24">
-        <v>1.004564416032961</v>
+        <v>1.040618245985523</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036227133413888</v>
+        <v>1.058953146648032</v>
       </c>
       <c r="J24">
-        <v>1.004414393083478</v>
+        <v>1.047027567114601</v>
       </c>
       <c r="K24">
-        <v>1.016380167161498</v>
+        <v>1.049843007421276</v>
       </c>
       <c r="L24">
-        <v>1.00023862006129</v>
+        <v>1.043355853882712</v>
       </c>
       <c r="M24">
-        <v>1.018511846763341</v>
+        <v>1.053967727410417</v>
       </c>
       <c r="N24">
-        <v>1.005840776729598</v>
+        <v>1.048514466355644</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9932061871409573</v>
+        <v>1.036513026695197</v>
       </c>
       <c r="D25">
-        <v>1.015832280473367</v>
+        <v>1.049849296404511</v>
       </c>
       <c r="E25">
-        <v>1.002119820473984</v>
+        <v>1.045092607821745</v>
       </c>
       <c r="F25">
-        <v>1.019082523075722</v>
+        <v>1.05508446057935</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04160950819226</v>
+        <v>1.066902416866786</v>
       </c>
       <c r="J25">
-        <v>1.017964373474493</v>
+        <v>1.059871107888356</v>
       </c>
       <c r="K25">
-        <v>1.028189693484687</v>
+        <v>1.061720089926782</v>
       </c>
       <c r="L25">
-        <v>1.014685317848227</v>
+        <v>1.057029043011342</v>
       </c>
       <c r="M25">
-        <v>1.031391657488874</v>
+        <v>1.066883870305834</v>
       </c>
       <c r="N25">
-        <v>1.019409999646973</v>
+        <v>1.061376246430473</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_29/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.048554267743949</v>
+        <v>1.080545938900384</v>
       </c>
       <c r="D2">
-        <v>1.059806927743077</v>
+        <v>1.080358253600873</v>
       </c>
       <c r="E2">
-        <v>1.056437128462046</v>
+        <v>1.084281696624755</v>
       </c>
       <c r="F2">
-        <v>1.065837269076451</v>
+        <v>1.090388847334099</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.072747696428022</v>
+        <v>1.066517180749263</v>
       </c>
       <c r="J2">
-        <v>1.069373744636371</v>
+        <v>1.085424939894193</v>
       </c>
       <c r="K2">
-        <v>1.070491497050999</v>
+        <v>1.083031896845428</v>
       </c>
       <c r="L2">
-        <v>1.0671624525807</v>
+        <v>1.086945122710575</v>
       </c>
       <c r="M2">
-        <v>1.076449703892011</v>
+        <v>1.093036527425253</v>
       </c>
       <c r="N2">
-        <v>1.070892378012638</v>
+        <v>1.086966367808823</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.05685138539391</v>
+        <v>1.082076833778985</v>
       </c>
       <c r="D3">
-        <v>1.066664047708536</v>
+        <v>1.081607143058637</v>
       </c>
       <c r="E3">
-        <v>1.064263810632462</v>
+        <v>1.085765685653733</v>
       </c>
       <c r="F3">
-        <v>1.073253934157604</v>
+        <v>1.091779194970309</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.076743269308908</v>
+        <v>1.067138822253866</v>
       </c>
       <c r="J3">
-        <v>1.07590369559818</v>
+        <v>1.086614527559414</v>
       </c>
       <c r="K3">
-        <v>1.07650950015195</v>
+        <v>1.084097984020297</v>
       </c>
       <c r="L3">
-        <v>1.074135509972443</v>
+        <v>1.088246486689164</v>
       </c>
       <c r="M3">
-        <v>1.083028065186331</v>
+        <v>1.094245622910291</v>
       </c>
       <c r="N3">
-        <v>1.077431602253809</v>
+        <v>1.088157644824977</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.062034828185426</v>
+        <v>1.083064632568904</v>
       </c>
       <c r="D4">
-        <v>1.070945394400907</v>
+        <v>1.082412283707002</v>
       </c>
       <c r="E4">
-        <v>1.069157395854991</v>
+        <v>1.086723453255276</v>
       </c>
       <c r="F4">
-        <v>1.077890148164698</v>
+        <v>1.092676262388592</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.079224322400418</v>
+        <v>1.067538137897128</v>
       </c>
       <c r="J4">
-        <v>1.079974597339109</v>
+        <v>1.087381031350491</v>
       </c>
       <c r="K4">
-        <v>1.080256822168595</v>
+        <v>1.084784277759929</v>
       </c>
       <c r="L4">
-        <v>1.078487092494927</v>
+        <v>1.089085566952537</v>
       </c>
       <c r="M4">
-        <v>1.087131317273014</v>
+        <v>1.095024870617743</v>
       </c>
       <c r="N4">
-        <v>1.081508285142149</v>
+        <v>1.088925237139357</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.064172351502263</v>
+        <v>1.08347924587696</v>
       </c>
       <c r="D5">
-        <v>1.072710248454349</v>
+        <v>1.082750061916173</v>
       </c>
       <c r="E5">
-        <v>1.071176301767321</v>
+        <v>1.087125517166859</v>
       </c>
       <c r="F5">
-        <v>1.079802605291908</v>
+        <v>1.093052781405889</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.080243791641447</v>
+        <v>1.067705314691507</v>
       </c>
       <c r="J5">
-        <v>1.081651249943095</v>
+        <v>1.087702503318073</v>
       </c>
       <c r="K5">
-        <v>1.081799135963117</v>
+        <v>1.0850719578071</v>
       </c>
       <c r="L5">
-        <v>1.080280410567369</v>
+        <v>1.089437610318678</v>
       </c>
       <c r="M5">
-        <v>1.088821797403586</v>
+        <v>1.095351728993833</v>
       </c>
       <c r="N5">
-        <v>1.083187318785147</v>
+        <v>1.089247165634006</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.064528887601442</v>
+        <v>1.083548823056105</v>
       </c>
       <c r="D6">
-        <v>1.073004582621672</v>
+        <v>1.082806735408443</v>
       </c>
       <c r="E6">
-        <v>1.071513104792621</v>
+        <v>1.087192991661007</v>
       </c>
       <c r="F6">
-        <v>1.080121633641114</v>
+        <v>1.093115965223578</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.080413621764522</v>
+        <v>1.067733343784087</v>
       </c>
       <c r="J6">
-        <v>1.081930789645224</v>
+        <v>1.087756435209645</v>
       </c>
       <c r="K6">
-        <v>1.082056214961412</v>
+        <v>1.085120211672037</v>
       </c>
       <c r="L6">
-        <v>1.08057946384858</v>
+        <v>1.089496678829118</v>
       </c>
       <c r="M6">
-        <v>1.089103671663899</v>
+        <v>1.095406566976512</v>
       </c>
       <c r="N6">
-        <v>1.083467255465717</v>
+        <v>1.08930117411505</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.062063549850128</v>
+        <v>1.083070175221079</v>
       </c>
       <c r="D7">
-        <v>1.070969111281986</v>
+        <v>1.082416799866656</v>
       </c>
       <c r="E7">
-        <v>1.069184520125094</v>
+        <v>1.086728827925402</v>
       </c>
       <c r="F7">
-        <v>1.07791584337134</v>
+        <v>1.092681295831722</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.079238035423624</v>
+        <v>1.067540374447753</v>
       </c>
       <c r="J7">
-        <v>1.079997134648214</v>
+        <v>1.087385329874055</v>
       </c>
       <c r="K7">
-        <v>1.080277557961127</v>
+        <v>1.084788125036231</v>
       </c>
       <c r="L7">
-        <v>1.078511193789134</v>
+        <v>1.089090273735305</v>
       </c>
       <c r="M7">
-        <v>1.087154038474619</v>
+        <v>1.095029241001471</v>
       </c>
       <c r="N7">
-        <v>1.081530854456817</v>
+        <v>1.088929541767316</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.051398455265574</v>
+        <v>1.08106389700602</v>
       </c>
       <c r="D8">
-        <v>1.062157977286657</v>
+        <v>1.080780943025588</v>
       </c>
       <c r="E8">
-        <v>1.059119163298411</v>
+        <v>1.084783735869806</v>
       </c>
       <c r="F8">
-        <v>1.06837899781994</v>
+        <v>1.090859261961709</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.074120522883255</v>
+        <v>1.066727876965933</v>
       </c>
       <c r="J8">
-        <v>1.071613946747513</v>
+        <v>1.085827642822208</v>
       </c>
       <c r="K8">
-        <v>1.072557000390669</v>
+        <v>1.083392923382314</v>
       </c>
       <c r="L8">
-        <v>1.069553726475812</v>
+        <v>1.08738554954124</v>
       </c>
       <c r="M8">
-        <v>1.078706042447276</v>
+        <v>1.093445797978768</v>
       </c>
       <c r="N8">
-        <v>1.073135761467732</v>
+        <v>1.087369642621187</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.031044483877331</v>
+        <v>1.077506684000913</v>
       </c>
       <c r="D9">
-        <v>1.045325501544296</v>
+        <v>1.077875161882819</v>
       </c>
       <c r="E9">
-        <v>1.039945922775897</v>
+        <v>1.08133683225285</v>
       </c>
       <c r="F9">
-        <v>1.050205538757702</v>
+        <v>1.087628407148524</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.06423167821711</v>
+        <v>1.065273481304203</v>
       </c>
       <c r="J9">
-        <v>1.055546675722681</v>
+        <v>1.08305757803457</v>
       </c>
       <c r="K9">
-        <v>1.057723645873617</v>
+        <v>1.080906927472517</v>
       </c>
       <c r="L9">
-        <v>1.052422524075626</v>
+        <v>1.084358278162774</v>
       </c>
       <c r="M9">
-        <v>1.062533391816092</v>
+        <v>1.090631280101038</v>
       </c>
       <c r="N9">
-        <v>1.057045673075103</v>
+        <v>1.084595644023819</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.01619729740849</v>
+        <v>1.075119775606769</v>
       </c>
       <c r="D10">
-        <v>1.033041640591737</v>
+        <v>1.075921800623693</v>
       </c>
       <c r="E10">
-        <v>1.025989720956176</v>
+        <v>1.079025195201105</v>
       </c>
       <c r="F10">
-        <v>1.036974453637588</v>
+        <v>1.085460311506787</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056937109077979</v>
+        <v>1.064288294207324</v>
       </c>
       <c r="J10">
-        <v>1.043782696653319</v>
+        <v>1.08119332761704</v>
       </c>
       <c r="K10">
-        <v>1.046838889254994</v>
+        <v>1.079230575522828</v>
       </c>
       <c r="L10">
-        <v>1.039905060100992</v>
+        <v>1.082323799109974</v>
       </c>
       <c r="M10">
-        <v>1.05070674124799</v>
+        <v>1.088738028121953</v>
       </c>
       <c r="N10">
-        <v>1.045264987806116</v>
+        <v>1.082728746156864</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.009402795983112</v>
+        <v>1.074082397761838</v>
       </c>
       <c r="D11">
-        <v>1.027420520032666</v>
+        <v>1.075072007123075</v>
       </c>
       <c r="E11">
-        <v>1.01961135102073</v>
+        <v>1.078020833995269</v>
       </c>
       <c r="F11">
-        <v>1.030927436601504</v>
+        <v>1.08451799853815</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05358027587891</v>
+        <v>1.063857921625797</v>
       </c>
       <c r="J11">
-        <v>1.038389572604479</v>
+        <v>1.080381795378279</v>
       </c>
       <c r="K11">
-        <v>1.04184321203937</v>
+        <v>1.078500061501948</v>
       </c>
       <c r="L11">
-        <v>1.034172666269923</v>
+        <v>1.081438844103074</v>
       </c>
       <c r="M11">
-        <v>1.045288760870295</v>
+        <v>1.087914089770457</v>
       </c>
       <c r="N11">
-        <v>1.039864204902526</v>
+        <v>1.08191606144924</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.006817698891075</v>
+        <v>1.073696480049059</v>
       </c>
       <c r="D12">
-        <v>1.025282070023643</v>
+        <v>1.074755747413307</v>
       </c>
       <c r="E12">
-        <v>1.01718597226503</v>
+        <v>1.077647244863686</v>
       </c>
       <c r="F12">
-        <v>1.028628106454154</v>
+        <v>1.084167441771554</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052300374495378</v>
+        <v>1.063697487371939</v>
       </c>
       <c r="J12">
-        <v>1.036336298122376</v>
+        <v>1.080079698834077</v>
       </c>
       <c r="K12">
-        <v>1.039940421831796</v>
+        <v>1.078228007821489</v>
       </c>
       <c r="L12">
-        <v>1.031991160267393</v>
+        <v>1.081109517678963</v>
       </c>
       <c r="M12">
-        <v>1.043226648504814</v>
+        <v>1.087607407975051</v>
       </c>
       <c r="N12">
-        <v>1.037808014535145</v>
+        <v>1.081613535893295</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.007375100096336</v>
+        <v>1.073779287603901</v>
       </c>
       <c r="D13">
-        <v>1.025743152311352</v>
+        <v>1.07482361391697</v>
       </c>
       <c r="E13">
-        <v>1.017708869690048</v>
+        <v>1.077727404949298</v>
       </c>
       <c r="F13">
-        <v>1.0291238251869</v>
+        <v>1.084242662007126</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052576470022026</v>
+        <v>1.063731927181081</v>
       </c>
       <c r="J13">
-        <v>1.0367790869833</v>
+        <v>1.080144529498337</v>
       </c>
       <c r="K13">
-        <v>1.040350796016576</v>
+        <v>1.078286396483061</v>
       </c>
       <c r="L13">
-        <v>1.032461559910986</v>
+        <v>1.081180187326075</v>
       </c>
       <c r="M13">
-        <v>1.043671314293102</v>
+        <v>1.087673221151436</v>
       </c>
       <c r="N13">
-        <v>1.03825143220704</v>
+        <v>1.081678458624534</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.009190402687397</v>
+        <v>1.074050509787462</v>
       </c>
       <c r="D14">
-        <v>1.027244818246558</v>
+        <v>1.075045877477432</v>
       </c>
       <c r="E14">
-        <v>1.019412051259991</v>
+        <v>1.077989963778463</v>
       </c>
       <c r="F14">
-        <v>1.030738493178343</v>
+        <v>1.084489032487271</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053475173171273</v>
+        <v>1.063844671843954</v>
       </c>
       <c r="J14">
-        <v>1.038220901177652</v>
+        <v>1.080356837459486</v>
       </c>
       <c r="K14">
-        <v>1.041686919276605</v>
+        <v>1.078477587970511</v>
       </c>
       <c r="L14">
-        <v>1.033993441944549</v>
+        <v>1.081411634488075</v>
       </c>
       <c r="M14">
-        <v>1.045119350504486</v>
+        <v>1.087888752364808</v>
       </c>
       <c r="N14">
-        <v>1.039695293942926</v>
+        <v>1.081891068087339</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.010300536081842</v>
+        <v>1.074217540208759</v>
       </c>
       <c r="D15">
-        <v>1.0281631827553</v>
+        <v>1.075182740410272</v>
       </c>
       <c r="E15">
-        <v>1.020453804938263</v>
+        <v>1.078151665031278</v>
       </c>
       <c r="F15">
-        <v>1.031726116018447</v>
+        <v>1.084640757586414</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054024411786732</v>
+        <v>1.063914061191712</v>
       </c>
       <c r="J15">
-        <v>1.039102455358311</v>
+        <v>1.080487559955085</v>
       </c>
       <c r="K15">
-        <v>1.042503743240153</v>
+        <v>1.078595293182697</v>
       </c>
       <c r="L15">
-        <v>1.034930188401278</v>
+        <v>1.081554154905566</v>
       </c>
       <c r="M15">
-        <v>1.046004792348559</v>
+        <v>1.088021463855086</v>
       </c>
       <c r="N15">
-        <v>1.040578100031637</v>
+        <v>1.082021976223877</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C16">
-        <v>1.016640001734598</v>
+        <v>1.075188541068201</v>
       </c>
       <c r="D16">
-        <v>1.033407911639836</v>
+        <v>1.075978113901977</v>
       </c>
       <c r="E16">
-        <v>1.026405495194975</v>
+        <v>1.079091778474964</v>
       </c>
       <c r="F16">
-        <v>1.037368632371341</v>
+        <v>1.085522774678199</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.057155449583003</v>
+        <v>1.064316776397606</v>
       </c>
       <c r="J16">
-        <v>1.044133901593991</v>
+        <v>1.081247094784449</v>
       </c>
       <c r="K16">
-        <v>1.04716409735473</v>
+        <v>1.079278958603792</v>
       </c>
       <c r="L16">
-        <v>1.040278486192981</v>
+        <v>1.082382445110706</v>
       </c>
       <c r="M16">
-        <v>1.051059648086848</v>
+        <v>1.088792621850755</v>
       </c>
       <c r="N16">
-        <v>1.045616691498088</v>
+        <v>1.082782589679819</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.020514511125937</v>
+        <v>1.075796588910236</v>
       </c>
       <c r="D17">
-        <v>1.036613537480343</v>
+        <v>1.076475958443659</v>
       </c>
       <c r="E17">
-        <v>1.030045269706283</v>
+        <v>1.079680565641801</v>
       </c>
       <c r="F17">
-        <v>1.040819356253394</v>
+        <v>1.086075091707543</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05906426451315</v>
+        <v>1.064568372196805</v>
       </c>
       <c r="J17">
-        <v>1.047206549657674</v>
+        <v>1.081722371818151</v>
       </c>
       <c r="K17">
-        <v>1.050008673142572</v>
+        <v>1.079706553358893</v>
       </c>
       <c r="L17">
-        <v>1.043546235656776</v>
+        <v>1.082900927110012</v>
       </c>
       <c r="M17">
-        <v>1.05414762452296</v>
+        <v>1.089275230511596</v>
       </c>
       <c r="N17">
-        <v>1.048693703074458</v>
+        <v>1.083258541661423</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.022739657528773</v>
+        <v>1.076150884260745</v>
       </c>
       <c r="D18">
-        <v>1.038454560507601</v>
+        <v>1.076765959966979</v>
       </c>
       <c r="E18">
-        <v>1.032136380521909</v>
+        <v>1.080023667368995</v>
       </c>
       <c r="F18">
-        <v>1.0428018459441</v>
+        <v>1.086396910722902</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060158761614958</v>
+        <v>1.064714759511688</v>
       </c>
       <c r="J18">
-        <v>1.048970283357776</v>
+        <v>1.081999178806597</v>
       </c>
       <c r="K18">
-        <v>1.051640965333065</v>
+        <v>1.079955514937777</v>
       </c>
       <c r="L18">
-        <v>1.045422533273082</v>
+        <v>1.083202962588025</v>
       </c>
       <c r="M18">
-        <v>1.055920515023295</v>
+        <v>1.089556328547328</v>
       </c>
       <c r="N18">
-        <v>1.050459941478717</v>
+        <v>1.083535741747543</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.023492651615922</v>
+        <v>1.076271627703991</v>
       </c>
       <c r="D19">
-        <v>1.039077565311957</v>
+        <v>1.076864778407905</v>
       </c>
       <c r="E19">
-        <v>1.032844144327326</v>
+        <v>1.080140600964164</v>
       </c>
       <c r="F19">
-        <v>1.043472842508395</v>
+        <v>1.086506585691556</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060528844160756</v>
+        <v>1.06476461222316</v>
       </c>
       <c r="J19">
-        <v>1.049566979475687</v>
+        <v>1.082093492946299</v>
       </c>
       <c r="K19">
-        <v>1.052193103421631</v>
+        <v>1.080040328871774</v>
       </c>
       <c r="L19">
-        <v>1.046057408386611</v>
+        <v>1.083305883717018</v>
       </c>
       <c r="M19">
-        <v>1.056520368600826</v>
+        <v>1.089652108301319</v>
       </c>
       <c r="N19">
-        <v>1.051057484973557</v>
+        <v>1.083630189824141</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.020102454248212</v>
+        <v>1.075731389364543</v>
       </c>
       <c r="D20">
-        <v>1.036272613791918</v>
+        <v>1.076422584110023</v>
       </c>
       <c r="E20">
-        <v>1.029658095685664</v>
+        <v>1.079617428356054</v>
       </c>
       <c r="F20">
-        <v>1.040452292621924</v>
+        <v>1.086015868381516</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.058861441583713</v>
+        <v>1.064541416074692</v>
       </c>
       <c r="J20">
-        <v>1.046879864473317</v>
+        <v>1.081671422001261</v>
       </c>
       <c r="K20">
-        <v>1.049706291300222</v>
+        <v>1.079660722822831</v>
       </c>
       <c r="L20">
-        <v>1.043198747453902</v>
+        <v>1.082845338941526</v>
       </c>
       <c r="M20">
-        <v>1.053819272062612</v>
+        <v>1.089223492565969</v>
       </c>
       <c r="N20">
-        <v>1.048366553959668</v>
+        <v>1.08320751948995</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.008657590679627</v>
+        <v>1.073970657996625</v>
       </c>
       <c r="D21">
-        <v>1.026804054938114</v>
+        <v>1.074980443289766</v>
       </c>
       <c r="E21">
-        <v>1.018912108684698</v>
+        <v>1.077912661333923</v>
       </c>
       <c r="F21">
-        <v>1.030264530471187</v>
+        <v>1.084416497518496</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05321146784298</v>
+        <v>1.063811487270773</v>
       </c>
       <c r="J21">
-        <v>1.037797748796838</v>
+        <v>1.080294336294348</v>
       </c>
       <c r="K21">
-        <v>1.041294808409849</v>
+        <v>1.07842130648082</v>
       </c>
       <c r="L21">
-        <v>1.033543830165262</v>
+        <v>1.081343496133782</v>
       </c>
       <c r="M21">
-        <v>1.044694354519486</v>
+        <v>1.087825301398144</v>
       </c>
       <c r="N21">
-        <v>1.039271540637195</v>
+        <v>1.081828478163379</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.001102990619926</v>
+        <v>1.072860199286828</v>
       </c>
       <c r="D22">
-        <v>1.02055533116049</v>
+        <v>1.074070185430475</v>
       </c>
       <c r="E22">
-        <v>1.011827084473943</v>
+        <v>1.076837764688488</v>
       </c>
       <c r="F22">
-        <v>1.023547891982372</v>
+        <v>1.083407780600545</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049466014878533</v>
+        <v>1.063349223514169</v>
       </c>
       <c r="J22">
-        <v>1.031794848396608</v>
+        <v>1.079424698972959</v>
       </c>
       <c r="K22">
-        <v>1.035730292593013</v>
+        <v>1.077637933122898</v>
       </c>
       <c r="L22">
-        <v>1.027167829980183</v>
+        <v>1.080395665287909</v>
       </c>
       <c r="M22">
-        <v>1.038666862066329</v>
+        <v>1.086942526976053</v>
       </c>
       <c r="N22">
-        <v>1.033260115429855</v>
+        <v>1.080957605857244</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.005144262318764</v>
+        <v>1.073449203020026</v>
       </c>
       <c r="D23">
-        <v>1.023897848283422</v>
+        <v>1.074553068451896</v>
       </c>
       <c r="E23">
-        <v>1.015616338928693</v>
+        <v>1.077407880383323</v>
       </c>
       <c r="F23">
-        <v>1.027140070664755</v>
+        <v>1.083942821138065</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051471082759795</v>
+        <v>1.063594596076184</v>
       </c>
       <c r="J23">
-        <v>1.035006760116572</v>
+        <v>1.079886075042297</v>
       </c>
       <c r="K23">
-        <v>1.038708092798442</v>
+        <v>1.078053606710242</v>
       </c>
       <c r="L23">
-        <v>1.030578854884319</v>
+        <v>1.080898470076193</v>
       </c>
       <c r="M23">
-        <v>1.041891570156218</v>
+        <v>1.087410854644503</v>
       </c>
       <c r="N23">
-        <v>1.036476588432873</v>
+        <v>1.081419637133521</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.020288752052769</v>
+        <v>1.075760851371869</v>
       </c>
       <c r="D24">
-        <v>1.036426751044183</v>
+        <v>1.076446702856657</v>
       </c>
       <c r="E24">
-        <v>1.029833141137691</v>
+        <v>1.079645958390843</v>
       </c>
       <c r="F24">
-        <v>1.040618245985523</v>
+        <v>1.086042629898215</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.058953146648032</v>
+        <v>1.064553597511464</v>
       </c>
       <c r="J24">
-        <v>1.047027567114601</v>
+        <v>1.081694445309796</v>
       </c>
       <c r="K24">
-        <v>1.049843007421276</v>
+        <v>1.079681433051117</v>
       </c>
       <c r="L24">
-        <v>1.043355853882712</v>
+        <v>1.082870458035712</v>
       </c>
       <c r="M24">
-        <v>1.053967727410417</v>
+        <v>1.089246871950756</v>
       </c>
       <c r="N24">
-        <v>1.048514466355644</v>
+        <v>1.083230575494223</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.036513026695197</v>
+        <v>1.078428976330021</v>
       </c>
       <c r="D25">
-        <v>1.049849296404511</v>
+        <v>1.078629183760722</v>
       </c>
       <c r="E25">
-        <v>1.045092607821745</v>
+        <v>1.082230305902759</v>
       </c>
       <c r="F25">
-        <v>1.05508446057935</v>
+        <v>1.088466116791595</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.066902416866786</v>
+        <v>1.065652199607555</v>
       </c>
       <c r="J25">
-        <v>1.059871107888356</v>
+        <v>1.083776754683178</v>
       </c>
       <c r="K25">
-        <v>1.061720089926782</v>
+        <v>1.081552928927151</v>
       </c>
       <c r="L25">
-        <v>1.057029043011342</v>
+        <v>1.085143727721681</v>
       </c>
       <c r="M25">
-        <v>1.066883870305834</v>
+        <v>1.091361837741381</v>
       </c>
       <c r="N25">
-        <v>1.061376246430473</v>
+        <v>1.08531584198576</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_29/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.080545938900384</v>
+        <v>1.048554267743947</v>
       </c>
       <c r="D2">
-        <v>1.080358253600873</v>
+        <v>1.059806927743076</v>
       </c>
       <c r="E2">
-        <v>1.084281696624755</v>
+        <v>1.056437128462045</v>
       </c>
       <c r="F2">
-        <v>1.090388847334099</v>
+        <v>1.06583726907645</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066517180749263</v>
+        <v>1.072747696428022</v>
       </c>
       <c r="J2">
-        <v>1.085424939894193</v>
+        <v>1.06937374463637</v>
       </c>
       <c r="K2">
-        <v>1.083031896845428</v>
+        <v>1.070491497050999</v>
       </c>
       <c r="L2">
-        <v>1.086945122710575</v>
+        <v>1.067162452580699</v>
       </c>
       <c r="M2">
-        <v>1.093036527425253</v>
+        <v>1.07644970389201</v>
       </c>
       <c r="N2">
-        <v>1.086966367808823</v>
+        <v>1.070892378012637</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.082076833778985</v>
+        <v>1.05685138539391</v>
       </c>
       <c r="D3">
-        <v>1.081607143058637</v>
+        <v>1.066664047708536</v>
       </c>
       <c r="E3">
-        <v>1.085765685653733</v>
+        <v>1.064263810632461</v>
       </c>
       <c r="F3">
-        <v>1.091779194970309</v>
+        <v>1.073253934157604</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067138822253866</v>
+        <v>1.076743269308908</v>
       </c>
       <c r="J3">
-        <v>1.086614527559414</v>
+        <v>1.07590369559818</v>
       </c>
       <c r="K3">
-        <v>1.084097984020297</v>
+        <v>1.07650950015195</v>
       </c>
       <c r="L3">
-        <v>1.088246486689164</v>
+        <v>1.074135509972443</v>
       </c>
       <c r="M3">
-        <v>1.094245622910291</v>
+        <v>1.083028065186331</v>
       </c>
       <c r="N3">
-        <v>1.088157644824977</v>
+        <v>1.077431602253809</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.083064632568904</v>
+        <v>1.062034828185425</v>
       </c>
       <c r="D4">
-        <v>1.082412283707002</v>
+        <v>1.070945394400906</v>
       </c>
       <c r="E4">
-        <v>1.086723453255276</v>
+        <v>1.06915739585499</v>
       </c>
       <c r="F4">
-        <v>1.092676262388592</v>
+        <v>1.077890148164697</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067538137897128</v>
+        <v>1.079224322400417</v>
       </c>
       <c r="J4">
-        <v>1.087381031350491</v>
+        <v>1.079974597339109</v>
       </c>
       <c r="K4">
-        <v>1.084784277759929</v>
+        <v>1.080256822168594</v>
       </c>
       <c r="L4">
-        <v>1.089085566952537</v>
+        <v>1.078487092494926</v>
       </c>
       <c r="M4">
-        <v>1.095024870617743</v>
+        <v>1.087131317273012</v>
       </c>
       <c r="N4">
-        <v>1.088925237139357</v>
+        <v>1.081508285142148</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.08347924587696</v>
+        <v>1.064172351502263</v>
       </c>
       <c r="D5">
-        <v>1.082750061916173</v>
+        <v>1.07271024845435</v>
       </c>
       <c r="E5">
-        <v>1.087125517166859</v>
+        <v>1.071176301767322</v>
       </c>
       <c r="F5">
-        <v>1.093052781405889</v>
+        <v>1.079802605291909</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067705314691507</v>
+        <v>1.080243791641448</v>
       </c>
       <c r="J5">
-        <v>1.087702503318073</v>
+        <v>1.081651249943096</v>
       </c>
       <c r="K5">
-        <v>1.0850719578071</v>
+        <v>1.081799135963118</v>
       </c>
       <c r="L5">
-        <v>1.089437610318678</v>
+        <v>1.08028041056737</v>
       </c>
       <c r="M5">
-        <v>1.095351728993833</v>
+        <v>1.088821797403587</v>
       </c>
       <c r="N5">
-        <v>1.089247165634006</v>
+        <v>1.083187318785147</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.083548823056105</v>
+        <v>1.064528887601441</v>
       </c>
       <c r="D6">
-        <v>1.082806735408443</v>
+        <v>1.073004582621671</v>
       </c>
       <c r="E6">
-        <v>1.087192991661007</v>
+        <v>1.07151310479262</v>
       </c>
       <c r="F6">
-        <v>1.093115965223578</v>
+        <v>1.080121633641114</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067733343784087</v>
+        <v>1.080413621764521</v>
       </c>
       <c r="J6">
-        <v>1.087756435209645</v>
+        <v>1.081930789645224</v>
       </c>
       <c r="K6">
-        <v>1.085120211672037</v>
+        <v>1.082056214961411</v>
       </c>
       <c r="L6">
-        <v>1.089496678829118</v>
+        <v>1.08057946384858</v>
       </c>
       <c r="M6">
-        <v>1.095406566976512</v>
+        <v>1.089103671663898</v>
       </c>
       <c r="N6">
-        <v>1.08930117411505</v>
+        <v>1.083467255465716</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.083070175221079</v>
+        <v>1.062063549850128</v>
       </c>
       <c r="D7">
-        <v>1.082416799866656</v>
+        <v>1.070969111281986</v>
       </c>
       <c r="E7">
-        <v>1.086728827925402</v>
+        <v>1.069184520125092</v>
       </c>
       <c r="F7">
-        <v>1.092681295831722</v>
+        <v>1.07791584337134</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067540374447753</v>
+        <v>1.079238035423624</v>
       </c>
       <c r="J7">
-        <v>1.087385329874055</v>
+        <v>1.079997134648213</v>
       </c>
       <c r="K7">
-        <v>1.084788125036231</v>
+        <v>1.080277557961126</v>
       </c>
       <c r="L7">
-        <v>1.089090273735305</v>
+        <v>1.078511193789133</v>
       </c>
       <c r="M7">
-        <v>1.095029241001471</v>
+        <v>1.087154038474619</v>
       </c>
       <c r="N7">
-        <v>1.088929541767316</v>
+        <v>1.081530854456816</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.08106389700602</v>
+        <v>1.051398455265576</v>
       </c>
       <c r="D8">
-        <v>1.080780943025588</v>
+        <v>1.062157977286658</v>
       </c>
       <c r="E8">
-        <v>1.084783735869806</v>
+        <v>1.059119163298412</v>
       </c>
       <c r="F8">
-        <v>1.090859261961709</v>
+        <v>1.068378997819941</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.066727876965933</v>
+        <v>1.074120522883256</v>
       </c>
       <c r="J8">
-        <v>1.085827642822208</v>
+        <v>1.071613946747514</v>
       </c>
       <c r="K8">
-        <v>1.083392923382314</v>
+        <v>1.07255700039067</v>
       </c>
       <c r="L8">
-        <v>1.08738554954124</v>
+        <v>1.069553726475813</v>
       </c>
       <c r="M8">
-        <v>1.093445797978768</v>
+        <v>1.078706042447277</v>
       </c>
       <c r="N8">
-        <v>1.087369642621187</v>
+        <v>1.073135761467733</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.077506684000913</v>
+        <v>1.031044483877328</v>
       </c>
       <c r="D9">
-        <v>1.077875161882819</v>
+        <v>1.045325501544293</v>
       </c>
       <c r="E9">
-        <v>1.08133683225285</v>
+        <v>1.039945922775893</v>
       </c>
       <c r="F9">
-        <v>1.087628407148524</v>
+        <v>1.050205538757698</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.065273481304203</v>
+        <v>1.064231678217108</v>
       </c>
       <c r="J9">
-        <v>1.08305757803457</v>
+        <v>1.055546675722678</v>
       </c>
       <c r="K9">
-        <v>1.080906927472517</v>
+        <v>1.057723645873613</v>
       </c>
       <c r="L9">
-        <v>1.084358278162774</v>
+        <v>1.052422524075622</v>
       </c>
       <c r="M9">
-        <v>1.090631280101038</v>
+        <v>1.062533391816089</v>
       </c>
       <c r="N9">
-        <v>1.084595644023819</v>
+        <v>1.0570456730751</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.075119775606769</v>
+        <v>1.01619729740849</v>
       </c>
       <c r="D10">
-        <v>1.075921800623693</v>
+        <v>1.033041640591738</v>
       </c>
       <c r="E10">
-        <v>1.079025195201105</v>
+        <v>1.025989720956177</v>
       </c>
       <c r="F10">
-        <v>1.085460311506787</v>
+        <v>1.036974453637589</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.064288294207324</v>
+        <v>1.05693710907798</v>
       </c>
       <c r="J10">
-        <v>1.08119332761704</v>
+        <v>1.04378269665332</v>
       </c>
       <c r="K10">
-        <v>1.079230575522828</v>
+        <v>1.046838889254994</v>
       </c>
       <c r="L10">
-        <v>1.082323799109974</v>
+        <v>1.039905060100993</v>
       </c>
       <c r="M10">
-        <v>1.088738028121953</v>
+        <v>1.050706741247991</v>
       </c>
       <c r="N10">
-        <v>1.082728746156864</v>
+        <v>1.045264987806116</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.074082397761838</v>
+        <v>1.009402795983111</v>
       </c>
       <c r="D11">
-        <v>1.075072007123075</v>
+        <v>1.027420520032664</v>
       </c>
       <c r="E11">
-        <v>1.078020833995269</v>
+        <v>1.019611351020728</v>
       </c>
       <c r="F11">
-        <v>1.08451799853815</v>
+        <v>1.030927436601503</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.063857921625797</v>
+        <v>1.053580275878909</v>
       </c>
       <c r="J11">
-        <v>1.080381795378279</v>
+        <v>1.038389572604478</v>
       </c>
       <c r="K11">
-        <v>1.078500061501948</v>
+        <v>1.041843212039368</v>
       </c>
       <c r="L11">
-        <v>1.081438844103074</v>
+        <v>1.034172666269922</v>
       </c>
       <c r="M11">
-        <v>1.087914089770457</v>
+        <v>1.045288760870293</v>
       </c>
       <c r="N11">
-        <v>1.08191606144924</v>
+        <v>1.039864204902525</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.073696480049059</v>
+        <v>1.006817698891073</v>
       </c>
       <c r="D12">
-        <v>1.074755747413307</v>
+        <v>1.025282070023642</v>
       </c>
       <c r="E12">
-        <v>1.077647244863686</v>
+        <v>1.017185972265028</v>
       </c>
       <c r="F12">
-        <v>1.084167441771554</v>
+        <v>1.028628106454152</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.063697487371939</v>
+        <v>1.052300374495376</v>
       </c>
       <c r="J12">
-        <v>1.080079698834077</v>
+        <v>1.036336298122374</v>
       </c>
       <c r="K12">
-        <v>1.078228007821489</v>
+        <v>1.039940421831795</v>
       </c>
       <c r="L12">
-        <v>1.081109517678963</v>
+        <v>1.031991160267391</v>
       </c>
       <c r="M12">
-        <v>1.087607407975051</v>
+        <v>1.043226648504812</v>
       </c>
       <c r="N12">
-        <v>1.081613535893295</v>
+        <v>1.037808014535143</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.073779287603901</v>
+        <v>1.007375100096337</v>
       </c>
       <c r="D13">
-        <v>1.07482361391697</v>
+        <v>1.025743152311353</v>
       </c>
       <c r="E13">
-        <v>1.077727404949298</v>
+        <v>1.017708869690048</v>
       </c>
       <c r="F13">
-        <v>1.084242662007126</v>
+        <v>1.029123825186901</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.063731927181081</v>
+        <v>1.052576470022027</v>
       </c>
       <c r="J13">
-        <v>1.080144529498337</v>
+        <v>1.036779086983301</v>
       </c>
       <c r="K13">
-        <v>1.078286396483061</v>
+        <v>1.040350796016577</v>
       </c>
       <c r="L13">
-        <v>1.081180187326075</v>
+        <v>1.032461559910987</v>
       </c>
       <c r="M13">
-        <v>1.087673221151436</v>
+        <v>1.043671314293103</v>
       </c>
       <c r="N13">
-        <v>1.081678458624534</v>
+        <v>1.038251432207041</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.074050509787462</v>
+        <v>1.009190402687396</v>
       </c>
       <c r="D14">
-        <v>1.075045877477432</v>
+        <v>1.027244818246557</v>
       </c>
       <c r="E14">
-        <v>1.077989963778463</v>
+        <v>1.01941205125999</v>
       </c>
       <c r="F14">
-        <v>1.084489032487271</v>
+        <v>1.030738493178342</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.063844671843954</v>
+        <v>1.053475173171272</v>
       </c>
       <c r="J14">
-        <v>1.080356837459486</v>
+        <v>1.038220901177651</v>
       </c>
       <c r="K14">
-        <v>1.078477587970511</v>
+        <v>1.041686919276604</v>
       </c>
       <c r="L14">
-        <v>1.081411634488075</v>
+        <v>1.033993441944547</v>
       </c>
       <c r="M14">
-        <v>1.087888752364808</v>
+        <v>1.045119350504485</v>
       </c>
       <c r="N14">
-        <v>1.081891068087339</v>
+        <v>1.039695293942925</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.074217540208759</v>
+        <v>1.010300536081842</v>
       </c>
       <c r="D15">
-        <v>1.075182740410272</v>
+        <v>1.0281631827553</v>
       </c>
       <c r="E15">
-        <v>1.078151665031278</v>
+        <v>1.020453804938262</v>
       </c>
       <c r="F15">
-        <v>1.084640757586414</v>
+        <v>1.031726116018447</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.063914061191712</v>
+        <v>1.054024411786732</v>
       </c>
       <c r="J15">
-        <v>1.080487559955085</v>
+        <v>1.039102455358311</v>
       </c>
       <c r="K15">
-        <v>1.078595293182697</v>
+        <v>1.042503743240153</v>
       </c>
       <c r="L15">
-        <v>1.081554154905566</v>
+        <v>1.034930188401278</v>
       </c>
       <c r="M15">
-        <v>1.088021463855086</v>
+        <v>1.046004792348559</v>
       </c>
       <c r="N15">
-        <v>1.082021976223877</v>
+        <v>1.040578100031637</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.075188541068201</v>
+        <v>1.016640001734601</v>
       </c>
       <c r="D16">
-        <v>1.075978113901977</v>
+        <v>1.033407911639839</v>
       </c>
       <c r="E16">
-        <v>1.079091778474964</v>
+        <v>1.026405495194978</v>
       </c>
       <c r="F16">
-        <v>1.085522774678199</v>
+        <v>1.037368632371344</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.064316776397606</v>
+        <v>1.057155449583004</v>
       </c>
       <c r="J16">
-        <v>1.081247094784449</v>
+        <v>1.044133901593995</v>
       </c>
       <c r="K16">
-        <v>1.079278958603792</v>
+        <v>1.047164097354732</v>
       </c>
       <c r="L16">
-        <v>1.082382445110706</v>
+        <v>1.040278486192985</v>
       </c>
       <c r="M16">
-        <v>1.088792621850755</v>
+        <v>1.051059648086851</v>
       </c>
       <c r="N16">
-        <v>1.082782589679819</v>
+        <v>1.045616691498091</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.075796588910236</v>
+        <v>1.020514511125939</v>
       </c>
       <c r="D17">
-        <v>1.076475958443659</v>
+        <v>1.036613537480345</v>
       </c>
       <c r="E17">
-        <v>1.079680565641801</v>
+        <v>1.030045269706286</v>
       </c>
       <c r="F17">
-        <v>1.086075091707543</v>
+        <v>1.040819356253396</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.064568372196805</v>
+        <v>1.059064264513151</v>
       </c>
       <c r="J17">
-        <v>1.081722371818151</v>
+        <v>1.047206549657676</v>
       </c>
       <c r="K17">
-        <v>1.079706553358893</v>
+        <v>1.050008673142574</v>
       </c>
       <c r="L17">
-        <v>1.082900927110012</v>
+        <v>1.043546235656779</v>
       </c>
       <c r="M17">
-        <v>1.089275230511596</v>
+        <v>1.054147624522962</v>
       </c>
       <c r="N17">
-        <v>1.083258541661423</v>
+        <v>1.04869370307446</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.076150884260745</v>
+        <v>1.022739657528773</v>
       </c>
       <c r="D18">
-        <v>1.076765959966979</v>
+        <v>1.038454560507602</v>
       </c>
       <c r="E18">
-        <v>1.080023667368995</v>
+        <v>1.032136380521909</v>
       </c>
       <c r="F18">
-        <v>1.086396910722902</v>
+        <v>1.0428018459441</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.064714759511688</v>
+        <v>1.060158761614958</v>
       </c>
       <c r="J18">
-        <v>1.081999178806597</v>
+        <v>1.048970283357777</v>
       </c>
       <c r="K18">
-        <v>1.079955514937777</v>
+        <v>1.051640965333065</v>
       </c>
       <c r="L18">
-        <v>1.083202962588025</v>
+        <v>1.045422533273083</v>
       </c>
       <c r="M18">
-        <v>1.089556328547328</v>
+        <v>1.055920515023296</v>
       </c>
       <c r="N18">
-        <v>1.083535741747543</v>
+        <v>1.050459941478718</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.076271627703991</v>
+        <v>1.023492651615926</v>
       </c>
       <c r="D19">
-        <v>1.076864778407905</v>
+        <v>1.039077565311961</v>
       </c>
       <c r="E19">
-        <v>1.080140600964164</v>
+        <v>1.03284414432733</v>
       </c>
       <c r="F19">
-        <v>1.086506585691556</v>
+        <v>1.043472842508399</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.06476461222316</v>
+        <v>1.060528844160759</v>
       </c>
       <c r="J19">
-        <v>1.082093492946299</v>
+        <v>1.04956697947569</v>
       </c>
       <c r="K19">
-        <v>1.080040328871774</v>
+        <v>1.052193103421635</v>
       </c>
       <c r="L19">
-        <v>1.083305883717018</v>
+        <v>1.046057408386615</v>
       </c>
       <c r="M19">
-        <v>1.089652108301319</v>
+        <v>1.05652036860083</v>
       </c>
       <c r="N19">
-        <v>1.083630189824141</v>
+        <v>1.051057484973561</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.075731389364543</v>
+        <v>1.020102454248213</v>
       </c>
       <c r="D20">
-        <v>1.076422584110023</v>
+        <v>1.036272613791919</v>
       </c>
       <c r="E20">
-        <v>1.079617428356054</v>
+        <v>1.029658095685664</v>
       </c>
       <c r="F20">
-        <v>1.086015868381516</v>
+        <v>1.040452292621925</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.064541416074692</v>
+        <v>1.058861441583713</v>
       </c>
       <c r="J20">
-        <v>1.081671422001261</v>
+        <v>1.046879864473318</v>
       </c>
       <c r="K20">
-        <v>1.079660722822831</v>
+        <v>1.049706291300223</v>
       </c>
       <c r="L20">
-        <v>1.082845338941526</v>
+        <v>1.043198747453903</v>
       </c>
       <c r="M20">
-        <v>1.089223492565969</v>
+        <v>1.053819272062614</v>
       </c>
       <c r="N20">
-        <v>1.08320751948995</v>
+        <v>1.048366553959669</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.073970657996625</v>
+        <v>1.008657590679628</v>
       </c>
       <c r="D21">
-        <v>1.074980443289766</v>
+        <v>1.026804054938114</v>
       </c>
       <c r="E21">
-        <v>1.077912661333923</v>
+        <v>1.018912108684698</v>
       </c>
       <c r="F21">
-        <v>1.084416497518496</v>
+        <v>1.030264530471187</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.063811487270773</v>
+        <v>1.05321146784298</v>
       </c>
       <c r="J21">
-        <v>1.080294336294348</v>
+        <v>1.037797748796838</v>
       </c>
       <c r="K21">
-        <v>1.07842130648082</v>
+        <v>1.041294808409849</v>
       </c>
       <c r="L21">
-        <v>1.081343496133782</v>
+        <v>1.033543830165263</v>
       </c>
       <c r="M21">
-        <v>1.087825301398144</v>
+        <v>1.044694354519486</v>
       </c>
       <c r="N21">
-        <v>1.081828478163379</v>
+        <v>1.039271540637196</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.072860199286828</v>
+        <v>1.001102990619923</v>
       </c>
       <c r="D22">
-        <v>1.074070185430475</v>
+        <v>1.020555331160487</v>
       </c>
       <c r="E22">
-        <v>1.076837764688488</v>
+        <v>1.01182708447394</v>
       </c>
       <c r="F22">
-        <v>1.083407780600545</v>
+        <v>1.023547891982369</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.063349223514169</v>
+        <v>1.049466014878531</v>
       </c>
       <c r="J22">
-        <v>1.079424698972959</v>
+        <v>1.031794848396606</v>
       </c>
       <c r="K22">
-        <v>1.077637933122898</v>
+        <v>1.035730292593009</v>
       </c>
       <c r="L22">
-        <v>1.080395665287909</v>
+        <v>1.02716782998018</v>
       </c>
       <c r="M22">
-        <v>1.086942526976053</v>
+        <v>1.038666862066326</v>
       </c>
       <c r="N22">
-        <v>1.080957605857244</v>
+        <v>1.033260115429852</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.073449203020026</v>
+        <v>1.005144262318763</v>
       </c>
       <c r="D23">
-        <v>1.074553068451896</v>
+        <v>1.02389784828342</v>
       </c>
       <c r="E23">
-        <v>1.077407880383323</v>
+        <v>1.015616338928692</v>
       </c>
       <c r="F23">
-        <v>1.083942821138065</v>
+        <v>1.027140070664754</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.063594596076184</v>
+        <v>1.051471082759794</v>
       </c>
       <c r="J23">
-        <v>1.079886075042297</v>
+        <v>1.035006760116571</v>
       </c>
       <c r="K23">
-        <v>1.078053606710242</v>
+        <v>1.038708092798441</v>
       </c>
       <c r="L23">
-        <v>1.080898470076193</v>
+        <v>1.030578854884318</v>
       </c>
       <c r="M23">
-        <v>1.087410854644503</v>
+        <v>1.041891570156217</v>
       </c>
       <c r="N23">
-        <v>1.081419637133521</v>
+        <v>1.036476588432872</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.075760851371869</v>
+        <v>1.020288752052771</v>
       </c>
       <c r="D24">
-        <v>1.076446702856657</v>
+        <v>1.036426751044185</v>
       </c>
       <c r="E24">
-        <v>1.079645958390843</v>
+        <v>1.029833141137693</v>
       </c>
       <c r="F24">
-        <v>1.086042629898215</v>
+        <v>1.040618245985525</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.064553597511464</v>
+        <v>1.058953146648033</v>
       </c>
       <c r="J24">
-        <v>1.081694445309796</v>
+        <v>1.047027567114602</v>
       </c>
       <c r="K24">
-        <v>1.079681433051117</v>
+        <v>1.049843007421278</v>
       </c>
       <c r="L24">
-        <v>1.082870458035712</v>
+        <v>1.043355853882714</v>
       </c>
       <c r="M24">
-        <v>1.089246871950756</v>
+        <v>1.053967727410419</v>
       </c>
       <c r="N24">
-        <v>1.083230575494223</v>
+        <v>1.048514466355646</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.078428976330021</v>
+        <v>1.036513026695199</v>
       </c>
       <c r="D25">
-        <v>1.078629183760722</v>
+        <v>1.049849296404512</v>
       </c>
       <c r="E25">
-        <v>1.082230305902759</v>
+        <v>1.045092607821747</v>
       </c>
       <c r="F25">
-        <v>1.088466116791595</v>
+        <v>1.055084460579351</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.065652199607555</v>
+        <v>1.066902416866787</v>
       </c>
       <c r="J25">
-        <v>1.083776754683178</v>
+        <v>1.059871107888358</v>
       </c>
       <c r="K25">
-        <v>1.081552928927151</v>
+        <v>1.061720089926784</v>
       </c>
       <c r="L25">
-        <v>1.085143727721681</v>
+        <v>1.057029043011344</v>
       </c>
       <c r="M25">
-        <v>1.091361837741381</v>
+        <v>1.066883870305835</v>
       </c>
       <c r="N25">
-        <v>1.08531584198576</v>
+        <v>1.061376246430474</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_29/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.048554267743947</v>
+        <v>1.001144327529224</v>
       </c>
       <c r="D2">
-        <v>1.059806927743076</v>
+        <v>1.025401584158175</v>
       </c>
       <c r="E2">
-        <v>1.056437128462045</v>
+        <v>1.009312146246998</v>
       </c>
       <c r="F2">
-        <v>1.06583726907645</v>
+        <v>1.032377616673192</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.072747696428022</v>
+        <v>1.046382249548368</v>
       </c>
       <c r="J2">
-        <v>1.06937374463637</v>
+        <v>1.023290865744702</v>
       </c>
       <c r="K2">
-        <v>1.070491497050999</v>
+        <v>1.036518023639436</v>
       </c>
       <c r="L2">
-        <v>1.067162452580699</v>
+        <v>1.020643254799084</v>
       </c>
       <c r="M2">
-        <v>1.07644970389201</v>
+        <v>1.043403581480825</v>
       </c>
       <c r="N2">
-        <v>1.070892378012637</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.01158287990599</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.042923409876581</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.036891664387846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05685138539391</v>
+        <v>1.004821428131708</v>
       </c>
       <c r="D3">
-        <v>1.066664047708536</v>
+        <v>1.027763274646775</v>
       </c>
       <c r="E3">
-        <v>1.064263810632461</v>
+        <v>1.012489876206259</v>
       </c>
       <c r="F3">
-        <v>1.073253934157604</v>
+        <v>1.034844768773182</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.076743269308908</v>
+        <v>1.046972321524047</v>
       </c>
       <c r="J3">
-        <v>1.07590369559818</v>
+        <v>1.025181513561411</v>
       </c>
       <c r="K3">
-        <v>1.07650950015195</v>
+        <v>1.038052827823872</v>
       </c>
       <c r="L3">
-        <v>1.074135509972443</v>
+        <v>1.02296540256712</v>
       </c>
       <c r="M3">
-        <v>1.083028065186331</v>
+        <v>1.04505040210855</v>
       </c>
       <c r="N3">
-        <v>1.077431602253809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012230865799848</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.044226752458414</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.037974238106857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.062034828185425</v>
+        <v>1.007161562947104</v>
       </c>
       <c r="D4">
-        <v>1.070945394400906</v>
+        <v>1.029269981435197</v>
       </c>
       <c r="E4">
-        <v>1.06915739585499</v>
+        <v>1.014517970824311</v>
       </c>
       <c r="F4">
-        <v>1.077890148164697</v>
+        <v>1.036420771318814</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.079224322400417</v>
+        <v>1.047338817208239</v>
       </c>
       <c r="J4">
-        <v>1.079974597339109</v>
+        <v>1.026383832512367</v>
       </c>
       <c r="K4">
-        <v>1.080256822168594</v>
+        <v>1.039027525920926</v>
       </c>
       <c r="L4">
-        <v>1.078487092494926</v>
+        <v>1.024444278397922</v>
       </c>
       <c r="M4">
-        <v>1.087131317273012</v>
+        <v>1.046098636697526</v>
       </c>
       <c r="N4">
-        <v>1.081508285142148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012642739877704</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045056355122632</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.038664333283554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.064172351502263</v>
+        <v>1.008139193369925</v>
       </c>
       <c r="D5">
-        <v>1.07271024845435</v>
+        <v>1.029902177322142</v>
       </c>
       <c r="E5">
-        <v>1.071176301767322</v>
+        <v>1.015366974148439</v>
       </c>
       <c r="F5">
-        <v>1.079802605291909</v>
+        <v>1.03708125310108</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.080243791641448</v>
+        <v>1.047491072515093</v>
       </c>
       <c r="J5">
-        <v>1.081651249943096</v>
+        <v>1.026887240558895</v>
       </c>
       <c r="K5">
-        <v>1.081799135963118</v>
+        <v>1.039436723336538</v>
       </c>
       <c r="L5">
-        <v>1.08028041056737</v>
+        <v>1.025063363950347</v>
       </c>
       <c r="M5">
-        <v>1.088821797403587</v>
+        <v>1.046537915031394</v>
       </c>
       <c r="N5">
-        <v>1.083187318785147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012815415501835</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.045404012209183</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.03896085174773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.064528887601441</v>
+        <v>1.008306403045652</v>
       </c>
       <c r="D6">
-        <v>1.073004582621671</v>
+        <v>1.030012656131873</v>
       </c>
       <c r="E6">
-        <v>1.07151310479262</v>
+        <v>1.015512718692461</v>
       </c>
       <c r="F6">
-        <v>1.080121633641114</v>
+        <v>1.037195160993122</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.080413621764521</v>
+        <v>1.04751862644134</v>
       </c>
       <c r="J6">
-        <v>1.081930789645224</v>
+        <v>1.026974980884874</v>
       </c>
       <c r="K6">
-        <v>1.082056214961411</v>
+        <v>1.039509749804912</v>
       </c>
       <c r="L6">
-        <v>1.08057946384858</v>
+        <v>1.025170521922901</v>
       </c>
       <c r="M6">
-        <v>1.089103671663898</v>
+        <v>1.046614687032323</v>
       </c>
       <c r="N6">
-        <v>1.083467255465716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012845844289007</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.045464771688272</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.039021244137568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.062063549850128</v>
+        <v>1.007184321403502</v>
       </c>
       <c r="D7">
-        <v>1.070969111281986</v>
+        <v>1.029290854765596</v>
       </c>
       <c r="E7">
-        <v>1.069184520125092</v>
+        <v>1.014538953245999</v>
       </c>
       <c r="F7">
-        <v>1.07791584337134</v>
+        <v>1.036438446159369</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.079238035423624</v>
+        <v>1.047346783081652</v>
       </c>
       <c r="J7">
-        <v>1.079997134648213</v>
+        <v>1.026399995823713</v>
       </c>
       <c r="K7">
-        <v>1.080277557961126</v>
+        <v>1.039045277437781</v>
       </c>
       <c r="L7">
-        <v>1.078511193789133</v>
+        <v>1.024462072835925</v>
       </c>
       <c r="M7">
-        <v>1.087154038474619</v>
+        <v>1.046113255557259</v>
       </c>
       <c r="N7">
-        <v>1.081530854456816</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012649200064947</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.04506792489732</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.038697026044779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.051398455265576</v>
+        <v>1.002407430167265</v>
       </c>
       <c r="D8">
-        <v>1.062157977286658</v>
+        <v>1.026219655408928</v>
       </c>
       <c r="E8">
-        <v>1.059119163298412</v>
+        <v>1.010404059178372</v>
       </c>
       <c r="F8">
-        <v>1.068378997819941</v>
+        <v>1.033226703899752</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.074120522883256</v>
+        <v>1.046592247807353</v>
       </c>
       <c r="J8">
-        <v>1.071613946747514</v>
+        <v>1.023946027734287</v>
       </c>
       <c r="K8">
-        <v>1.07255700039067</v>
+        <v>1.037055801719827</v>
       </c>
       <c r="L8">
-        <v>1.069553726475813</v>
+        <v>1.021444921244981</v>
       </c>
       <c r="M8">
-        <v>1.078706042447277</v>
+        <v>1.043974649133383</v>
       </c>
       <c r="N8">
-        <v>1.073135761467733</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011808669211033</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043375369981354</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037294872021876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031044483877328</v>
+        <v>0.9936612426266269</v>
       </c>
       <c r="D9">
-        <v>1.045325501544293</v>
+        <v>1.020618073633724</v>
       </c>
       <c r="E9">
-        <v>1.039945922775893</v>
+        <v>1.002878233059603</v>
       </c>
       <c r="F9">
-        <v>1.050205538757698</v>
+        <v>1.027391290775943</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.064231678217108</v>
+        <v>1.045133923133548</v>
       </c>
       <c r="J9">
-        <v>1.055546675722678</v>
+        <v>1.019439841702446</v>
       </c>
       <c r="K9">
-        <v>1.057723645873613</v>
+        <v>1.033385265011776</v>
       </c>
       <c r="L9">
-        <v>1.052422524075622</v>
+        <v>1.015924784907707</v>
       </c>
       <c r="M9">
-        <v>1.062533391816089</v>
+        <v>1.040055062915256</v>
       </c>
       <c r="N9">
-        <v>1.0570456730751</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010262202282783</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.040273285969842</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034696365037459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01619729740849</v>
+        <v>0.9876507754656522</v>
       </c>
       <c r="D10">
-        <v>1.033041640591738</v>
+        <v>1.016815656130502</v>
       </c>
       <c r="E10">
-        <v>1.025989720956177</v>
+        <v>0.9977466118887288</v>
       </c>
       <c r="F10">
-        <v>1.036974453637589</v>
+        <v>1.023491135826913</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05693710907798</v>
+        <v>1.044108408889526</v>
       </c>
       <c r="J10">
-        <v>1.04378269665332</v>
+        <v>1.016363069625575</v>
       </c>
       <c r="K10">
-        <v>1.046838889254994</v>
+        <v>1.030887794178239</v>
       </c>
       <c r="L10">
-        <v>1.039905060100993</v>
+        <v>1.012156671495336</v>
       </c>
       <c r="M10">
-        <v>1.050706741247991</v>
+        <v>1.037448820019845</v>
       </c>
       <c r="N10">
-        <v>1.045264987806116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009210189864626</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.038262067734954</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032947349782099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.009402795983111</v>
+        <v>0.9853760157567474</v>
       </c>
       <c r="D11">
-        <v>1.027420520032664</v>
+        <v>1.015556648094556</v>
       </c>
       <c r="E11">
-        <v>1.019611351020728</v>
+        <v>0.9958646303269549</v>
       </c>
       <c r="F11">
-        <v>1.030927436601503</v>
+        <v>1.022609262757468</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053580275878909</v>
+        <v>1.043874074892186</v>
       </c>
       <c r="J11">
-        <v>1.038389572604478</v>
+        <v>1.015370083423368</v>
       </c>
       <c r="K11">
-        <v>1.041843212039368</v>
+        <v>1.030191033340484</v>
       </c>
       <c r="L11">
-        <v>1.034172666269922</v>
+        <v>1.010864957323279</v>
       </c>
       <c r="M11">
-        <v>1.045288760870293</v>
+        <v>1.037117036081628</v>
       </c>
       <c r="N11">
-        <v>1.039864204902525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.00890919217217</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.038435727637277</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.032487660323457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.006817698891073</v>
+        <v>0.9846562183332869</v>
       </c>
       <c r="D12">
-        <v>1.025282070023642</v>
+        <v>1.015225511432262</v>
       </c>
       <c r="E12">
-        <v>1.017185972265028</v>
+        <v>0.9952915125579676</v>
       </c>
       <c r="F12">
-        <v>1.028628106454152</v>
+        <v>1.022573323850228</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052300374495376</v>
+        <v>1.043863460308023</v>
       </c>
       <c r="J12">
-        <v>1.036336298122374</v>
+        <v>1.015124455822638</v>
       </c>
       <c r="K12">
-        <v>1.039940421831795</v>
+        <v>1.030066714600483</v>
       </c>
       <c r="L12">
-        <v>1.031991160267391</v>
+        <v>1.010509479149223</v>
       </c>
       <c r="M12">
-        <v>1.043226648504812</v>
+        <v>1.03728046674169</v>
       </c>
       <c r="N12">
-        <v>1.037808014535143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008856421375112</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.038891350464668</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.032399762403551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.007375100096337</v>
+        <v>0.9850988563374288</v>
       </c>
       <c r="D13">
-        <v>1.025743152311353</v>
+        <v>1.015603501136929</v>
       </c>
       <c r="E13">
-        <v>1.017708869690048</v>
+        <v>0.9956989689338818</v>
       </c>
       <c r="F13">
-        <v>1.029123825186901</v>
+        <v>1.023209109687719</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052576470022027</v>
+        <v>1.044037273518669</v>
       </c>
       <c r="J13">
-        <v>1.036779086983301</v>
+        <v>1.01545254471761</v>
       </c>
       <c r="K13">
-        <v>1.040350796016577</v>
+        <v>1.030394694757593</v>
       </c>
       <c r="L13">
-        <v>1.032461559910987</v>
+        <v>1.010864723800702</v>
       </c>
       <c r="M13">
-        <v>1.043671314293103</v>
+        <v>1.037862182034506</v>
       </c>
       <c r="N13">
-        <v>1.038251432207041</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008997436067111</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039627906868315</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.032629155704674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.009190402687396</v>
+        <v>0.9859363418576129</v>
       </c>
       <c r="D14">
-        <v>1.027244818246557</v>
+        <v>1.016190539980168</v>
       </c>
       <c r="E14">
-        <v>1.01941205125999</v>
+        <v>0.996429418976408</v>
       </c>
       <c r="F14">
-        <v>1.030738493178342</v>
+        <v>1.023958489794027</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053475173171272</v>
+        <v>1.044242553369144</v>
       </c>
       <c r="J14">
-        <v>1.038220901177651</v>
+        <v>1.015942628282613</v>
       </c>
       <c r="K14">
-        <v>1.041686919276604</v>
+        <v>1.030830029089191</v>
       </c>
       <c r="L14">
-        <v>1.033993441944547</v>
+        <v>1.011436044553717</v>
       </c>
       <c r="M14">
-        <v>1.045119350504485</v>
+        <v>1.038458694725144</v>
       </c>
       <c r="N14">
-        <v>1.039695293942925</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009184241542396</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.040272701114196</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032938382380961</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.010300536081842</v>
+        <v>0.9863978343402929</v>
       </c>
       <c r="D15">
-        <v>1.0281631827553</v>
+        <v>1.016495676465579</v>
       </c>
       <c r="E15">
-        <v>1.020453804938262</v>
+        <v>0.9968260024940224</v>
       </c>
       <c r="F15">
-        <v>1.031726116018447</v>
+        <v>1.024302039912983</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054024411786732</v>
+        <v>1.044336907256155</v>
       </c>
       <c r="J15">
-        <v>1.039102455358311</v>
+        <v>1.016193047445266</v>
       </c>
       <c r="K15">
-        <v>1.042503743240153</v>
+        <v>1.031042833850855</v>
       </c>
       <c r="L15">
-        <v>1.034930188401278</v>
+        <v>1.01173576298155</v>
       </c>
       <c r="M15">
-        <v>1.046004792348559</v>
+        <v>1.038710294270069</v>
       </c>
       <c r="N15">
-        <v>1.040578100031637</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009274303088247</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040509087168948</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.033094732216646</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016640001734601</v>
+        <v>0.9888567202848761</v>
       </c>
       <c r="D16">
-        <v>1.033407911639839</v>
+        <v>1.018038456256013</v>
       </c>
       <c r="E16">
-        <v>1.026405495194978</v>
+        <v>0.9989149816907729</v>
       </c>
       <c r="F16">
-        <v>1.037368632371344</v>
+        <v>1.025862877096512</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.057155449583004</v>
+        <v>1.044755179046705</v>
       </c>
       <c r="J16">
-        <v>1.044133901593995</v>
+        <v>1.017441311374409</v>
       </c>
       <c r="K16">
-        <v>1.047164097354732</v>
+        <v>1.032053739198357</v>
       </c>
       <c r="L16">
-        <v>1.040278486192985</v>
+        <v>1.013267118711092</v>
       </c>
       <c r="M16">
-        <v>1.051059648086851</v>
+        <v>1.039745005211391</v>
       </c>
       <c r="N16">
-        <v>1.045616691498091</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009695664766107</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041288219090443</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.033812658546949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020514511125939</v>
+        <v>0.9903065516746604</v>
       </c>
       <c r="D17">
-        <v>1.036613537480345</v>
+        <v>1.018916054193335</v>
       </c>
       <c r="E17">
-        <v>1.030045269706286</v>
+        <v>1.000138184861406</v>
       </c>
       <c r="F17">
-        <v>1.040819356253396</v>
+        <v>1.026663861847295</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059064264513151</v>
+        <v>1.044966007088568</v>
       </c>
       <c r="J17">
-        <v>1.047206549657676</v>
+        <v>1.018142399696716</v>
       </c>
       <c r="K17">
-        <v>1.050008673142574</v>
+        <v>1.032600350890468</v>
       </c>
       <c r="L17">
-        <v>1.043546235656779</v>
+        <v>1.014143791630294</v>
       </c>
       <c r="M17">
-        <v>1.054147624522962</v>
+        <v>1.040219989045686</v>
       </c>
       <c r="N17">
-        <v>1.04869370307446</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009921018346766</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041534677325685</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.034201730987684</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022739657528773</v>
+        <v>0.9910145818611709</v>
       </c>
       <c r="D18">
-        <v>1.038454560507602</v>
+        <v>1.019281547802226</v>
       </c>
       <c r="E18">
-        <v>1.032136380521909</v>
+        <v>1.000716964435808</v>
       </c>
       <c r="F18">
-        <v>1.0428018459441</v>
+        <v>1.02684013983886</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060158761614958</v>
+        <v>1.045007650196586</v>
       </c>
       <c r="J18">
-        <v>1.048970283357777</v>
+        <v>1.018421398681187</v>
       </c>
       <c r="K18">
-        <v>1.051640965333065</v>
+        <v>1.032775554521733</v>
       </c>
       <c r="L18">
-        <v>1.045422533273083</v>
+        <v>1.014523333605315</v>
       </c>
       <c r="M18">
-        <v>1.055920515023296</v>
+        <v>1.040211120275907</v>
       </c>
       <c r="N18">
-        <v>1.050459941478718</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009991963784945</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041290084245918</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034313938245944</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023492651615926</v>
+        <v>0.9910600189952609</v>
       </c>
       <c r="D19">
-        <v>1.039077565311961</v>
+        <v>1.019195623225448</v>
       </c>
       <c r="E19">
-        <v>1.03284414432733</v>
+        <v>1.000720569782334</v>
       </c>
       <c r="F19">
-        <v>1.043472842508399</v>
+        <v>1.026453199215403</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060528844160759</v>
+        <v>1.044904390274177</v>
       </c>
       <c r="J19">
-        <v>1.04956697947569</v>
+        <v>1.018328444952407</v>
       </c>
       <c r="K19">
-        <v>1.052193103421635</v>
+        <v>1.032628229702188</v>
       </c>
       <c r="L19">
-        <v>1.046057408386615</v>
+        <v>1.014462400120139</v>
       </c>
       <c r="M19">
-        <v>1.05652036860083</v>
+        <v>1.039768239317467</v>
       </c>
       <c r="N19">
-        <v>1.051057484973561</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009930644171722</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.040614534587816</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034216187054761</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020102454248213</v>
+        <v>0.9892331884996389</v>
       </c>
       <c r="D20">
-        <v>1.036272613791919</v>
+        <v>1.017831183719427</v>
       </c>
       <c r="E20">
-        <v>1.029658095685664</v>
+        <v>0.9990988172404496</v>
       </c>
       <c r="F20">
-        <v>1.040452292621925</v>
+        <v>1.024524988097557</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.058861441583713</v>
+        <v>1.0443933617968</v>
       </c>
       <c r="J20">
-        <v>1.046879864473318</v>
+        <v>1.017185556077566</v>
       </c>
       <c r="K20">
-        <v>1.049706291300223</v>
+        <v>1.03156757586222</v>
       </c>
       <c r="L20">
-        <v>1.043198747453903</v>
+        <v>1.013157531391436</v>
       </c>
       <c r="M20">
-        <v>1.053819272062614</v>
+        <v>1.038149880677019</v>
       </c>
       <c r="N20">
-        <v>1.048366553959669</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009494423044477</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.038806331625174</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033470192681515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.008657590679628</v>
+        <v>0.9846509765581366</v>
       </c>
       <c r="D21">
-        <v>1.026804054938114</v>
+        <v>1.014905198562467</v>
       </c>
       <c r="E21">
-        <v>1.018912108684698</v>
+        <v>0.9951883530475198</v>
       </c>
       <c r="F21">
-        <v>1.030264530471187</v>
+        <v>1.021449703058015</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05321146784298</v>
+        <v>1.043563462595996</v>
       </c>
       <c r="J21">
-        <v>1.037797748796838</v>
+        <v>1.014804752939429</v>
       </c>
       <c r="K21">
-        <v>1.041294808409849</v>
+        <v>1.029609584646642</v>
       </c>
       <c r="L21">
-        <v>1.033543830165263</v>
+        <v>1.01026146056742</v>
       </c>
       <c r="M21">
-        <v>1.044694354519486</v>
+        <v>1.036035788719259</v>
       </c>
       <c r="N21">
-        <v>1.039271540637196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008672977524609</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.037092291875154</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.032089049444556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.001102990619923</v>
+        <v>0.9817288513151087</v>
       </c>
       <c r="D22">
-        <v>1.020555331160487</v>
+        <v>1.013049934405895</v>
       </c>
       <c r="E22">
-        <v>1.01182708447394</v>
+        <v>0.9927041317611105</v>
       </c>
       <c r="F22">
-        <v>1.023547891982369</v>
+        <v>1.019531954429168</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049466014878531</v>
+        <v>1.043031220844017</v>
       </c>
       <c r="J22">
-        <v>1.031794848396606</v>
+        <v>1.013292470813393</v>
       </c>
       <c r="K22">
-        <v>1.035730292593009</v>
+        <v>1.028367227902732</v>
       </c>
       <c r="L22">
-        <v>1.02716782998018</v>
+        <v>1.008421520125498</v>
       </c>
       <c r="M22">
-        <v>1.038666862066326</v>
+        <v>1.034726161953</v>
       </c>
       <c r="N22">
-        <v>1.033260115429852</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008152052038208</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.036055804411322</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031197087215731</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005144262318763</v>
+        <v>0.9832739354694606</v>
       </c>
       <c r="D23">
-        <v>1.02389784828342</v>
+        <v>1.014024878970701</v>
       </c>
       <c r="E23">
-        <v>1.015616338928692</v>
+        <v>0.9940156611598632</v>
       </c>
       <c r="F23">
-        <v>1.027140070664754</v>
+        <v>1.020543034555371</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051471082759794</v>
+        <v>1.043309623238614</v>
       </c>
       <c r="J23">
-        <v>1.035006760116571</v>
+        <v>1.01408801784198</v>
       </c>
       <c r="K23">
-        <v>1.038708092798441</v>
+        <v>1.029017028777904</v>
       </c>
       <c r="L23">
-        <v>1.030578854884318</v>
+        <v>1.009391024010168</v>
       </c>
       <c r="M23">
-        <v>1.041891570156217</v>
+        <v>1.035414575899162</v>
       </c>
       <c r="N23">
-        <v>1.036476588432872</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008425068698029</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036600641070408</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.031646855442858</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020288752052771</v>
+        <v>0.9892572894892078</v>
       </c>
       <c r="D24">
-        <v>1.036426751044185</v>
+        <v>1.017821244463232</v>
       </c>
       <c r="E24">
-        <v>1.029833141137693</v>
+        <v>0.9991124682131804</v>
       </c>
       <c r="F24">
-        <v>1.040618245985525</v>
+        <v>1.024479507350095</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.058953146648033</v>
+        <v>1.044375940734314</v>
       </c>
       <c r="J24">
-        <v>1.047027567114602</v>
+        <v>1.017175235962518</v>
       </c>
       <c r="K24">
-        <v>1.049843007421278</v>
+        <v>1.031542463724788</v>
       </c>
       <c r="L24">
-        <v>1.043355853882714</v>
+        <v>1.01315518785178</v>
       </c>
       <c r="M24">
-        <v>1.053967727410419</v>
+        <v>1.038089953472102</v>
       </c>
       <c r="N24">
-        <v>1.048514466355646</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009485979409535</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.038718031430541</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033424943410173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036513026695199</v>
+        <v>0.995976967324399</v>
       </c>
       <c r="D25">
-        <v>1.049849296404512</v>
+        <v>1.022106753920853</v>
       </c>
       <c r="E25">
-        <v>1.045092607821747</v>
+        <v>1.004867190713472</v>
       </c>
       <c r="F25">
-        <v>1.055084460579351</v>
+        <v>1.028933900023944</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.066902416866787</v>
+        <v>1.045534787885235</v>
       </c>
       <c r="J25">
-        <v>1.059871107888358</v>
+        <v>1.020640485252425</v>
       </c>
       <c r="K25">
-        <v>1.061720089926784</v>
+        <v>1.034371316999971</v>
       </c>
       <c r="L25">
-        <v>1.057029043011344</v>
+        <v>1.017390416776079</v>
       </c>
       <c r="M25">
-        <v>1.066883870305835</v>
+        <v>1.041099064959264</v>
       </c>
       <c r="N25">
-        <v>1.061376246430474</v>
+        <v>1.010676021403771</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.04109954337587</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035422228442728</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_29/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001144327529224</v>
+        <v>1.001098273770186</v>
       </c>
       <c r="D2">
-        <v>1.025401584158175</v>
+        <v>1.024912792510701</v>
       </c>
       <c r="E2">
-        <v>1.009312146246998</v>
+        <v>1.009266401932464</v>
       </c>
       <c r="F2">
-        <v>1.032377616673192</v>
+        <v>1.032087863308665</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046382249548368</v>
+        <v>1.046190239526058</v>
       </c>
       <c r="J2">
-        <v>1.023290865744702</v>
+        <v>1.023246185206629</v>
       </c>
       <c r="K2">
-        <v>1.036518023639436</v>
+        <v>1.036035629157412</v>
       </c>
       <c r="L2">
-        <v>1.020643254799084</v>
+        <v>1.020598133094671</v>
       </c>
       <c r="M2">
-        <v>1.043403581480825</v>
+        <v>1.043117555584256</v>
       </c>
       <c r="N2">
-        <v>1.01158287990599</v>
+        <v>1.013301327301394</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042923409876581</v>
+        <v>1.042697040279421</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036891664387846</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036559361711753</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021638531176061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004821428131708</v>
+        <v>1.004640197064933</v>
       </c>
       <c r="D3">
-        <v>1.027763274646775</v>
+        <v>1.027113489691452</v>
       </c>
       <c r="E3">
-        <v>1.012489876206259</v>
+        <v>1.012309659027582</v>
       </c>
       <c r="F3">
-        <v>1.034844768773182</v>
+        <v>1.034439530207569</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046972321524047</v>
+        <v>1.046709456639494</v>
       </c>
       <c r="J3">
-        <v>1.025181513561411</v>
+        <v>1.025005159981875</v>
       </c>
       <c r="K3">
-        <v>1.038052827823872</v>
+        <v>1.037410815085119</v>
       </c>
       <c r="L3">
-        <v>1.02296540256712</v>
+        <v>1.022787421475528</v>
       </c>
       <c r="M3">
-        <v>1.04505040210855</v>
+        <v>1.044649927486236</v>
       </c>
       <c r="N3">
-        <v>1.012230865799848</v>
+        <v>1.013780213153543</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044226752458414</v>
+        <v>1.043909805204778</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037974238106857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037528794413319</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021909232114715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007161562947104</v>
+        <v>1.006895296799898</v>
       </c>
       <c r="D4">
-        <v>1.029269981435197</v>
+        <v>1.028518337244558</v>
       </c>
       <c r="E4">
-        <v>1.014517970824311</v>
+        <v>1.014253010997167</v>
       </c>
       <c r="F4">
-        <v>1.036420771318814</v>
+        <v>1.035942598896881</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047338817208239</v>
+        <v>1.047031088060457</v>
       </c>
       <c r="J4">
-        <v>1.026383832512367</v>
+        <v>1.026124249811025</v>
       </c>
       <c r="K4">
-        <v>1.039027525920926</v>
+        <v>1.038284336334317</v>
       </c>
       <c r="L4">
-        <v>1.024444278397922</v>
+        <v>1.024182405198226</v>
       </c>
       <c r="M4">
-        <v>1.046098636697526</v>
+        <v>1.045625750212448</v>
       </c>
       <c r="N4">
-        <v>1.012642739877704</v>
+        <v>1.014084793932937</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045056355122632</v>
+        <v>1.044682099426472</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.038664333283554</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038147430262901</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022078848098938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008139193369925</v>
+        <v>1.007837624502906</v>
       </c>
       <c r="D5">
-        <v>1.029902177322142</v>
+        <v>1.029108168555443</v>
       </c>
       <c r="E5">
-        <v>1.015366974148439</v>
+        <v>1.015066800240428</v>
       </c>
       <c r="F5">
-        <v>1.03708125310108</v>
+        <v>1.036572767188793</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047491072515093</v>
+        <v>1.04716466706267</v>
       </c>
       <c r="J5">
-        <v>1.026887240558895</v>
+        <v>1.026593016100912</v>
       </c>
       <c r="K5">
-        <v>1.039436723336538</v>
+        <v>1.038651410535299</v>
       </c>
       <c r="L5">
-        <v>1.025063363950347</v>
+        <v>1.02476659256893</v>
       </c>
       <c r="M5">
-        <v>1.046537915031394</v>
+        <v>1.046034902044774</v>
       </c>
       <c r="N5">
-        <v>1.012815415501835</v>
+        <v>1.014212569499185</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.045404012209183</v>
+        <v>1.045005913732753</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.03896085174773</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038414873631354</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022149987045892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008306403045652</v>
+        <v>1.007998802306352</v>
       </c>
       <c r="D6">
-        <v>1.030012656131873</v>
+        <v>1.029211468757035</v>
       </c>
       <c r="E6">
-        <v>1.015512718692461</v>
+        <v>1.015206526466368</v>
       </c>
       <c r="F6">
-        <v>1.037195160993122</v>
+        <v>1.036681528358054</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04751862644134</v>
+        <v>1.047189044679355</v>
       </c>
       <c r="J6">
-        <v>1.026974980884874</v>
+        <v>1.026674833099791</v>
       </c>
       <c r="K6">
-        <v>1.039509749804912</v>
+        <v>1.038717297250836</v>
       </c>
       <c r="L6">
-        <v>1.025170521922901</v>
+        <v>1.024867784339944</v>
       </c>
       <c r="M6">
-        <v>1.046614687032323</v>
+        <v>1.046106557665252</v>
       </c>
       <c r="N6">
-        <v>1.012845844289007</v>
+        <v>1.014235133376522</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.045464771688272</v>
+        <v>1.045062623998174</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039021244137568</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.03847108492972</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022163245119865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007184321403502</v>
+        <v>1.006925113412168</v>
       </c>
       <c r="D7">
-        <v>1.029290854765596</v>
+        <v>1.028543693791818</v>
       </c>
       <c r="E7">
-        <v>1.014538953245999</v>
+        <v>1.014281015878469</v>
       </c>
       <c r="F7">
-        <v>1.036438446159369</v>
+        <v>1.03596412453595</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047346783081652</v>
+        <v>1.04704117911543</v>
       </c>
       <c r="J7">
-        <v>1.026399995823713</v>
+        <v>1.026147291278523</v>
       </c>
       <c r="K7">
-        <v>1.039045277437781</v>
+        <v>1.038306517372158</v>
       </c>
       <c r="L7">
-        <v>1.024462072835925</v>
+        <v>1.02420713910276</v>
       </c>
       <c r="M7">
-        <v>1.046113255557259</v>
+        <v>1.04564417531301</v>
       </c>
       <c r="N7">
-        <v>1.012649200064947</v>
+        <v>1.014117720099466</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04506792489732</v>
+        <v>1.044696681574089</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.038697026044779</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038185250567799</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022085135261606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002407430167265</v>
+        <v>1.002339066067916</v>
       </c>
       <c r="D8">
-        <v>1.026219655408928</v>
+        <v>1.025692106985543</v>
       </c>
       <c r="E8">
-        <v>1.010404059178372</v>
+        <v>1.010336127821241</v>
       </c>
       <c r="F8">
-        <v>1.033226703899752</v>
+        <v>1.032911148415679</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046592247807353</v>
+        <v>1.046383736404989</v>
       </c>
       <c r="J8">
-        <v>1.023946027734287</v>
+        <v>1.023879633889416</v>
       </c>
       <c r="K8">
-        <v>1.037055801719827</v>
+        <v>1.036534954713257</v>
       </c>
       <c r="L8">
-        <v>1.021444921244981</v>
+        <v>1.021377886520055</v>
       </c>
       <c r="M8">
-        <v>1.043974649133383</v>
+        <v>1.043663033624167</v>
       </c>
       <c r="N8">
-        <v>1.011808669211033</v>
+        <v>1.013553603966572</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043375369981354</v>
+        <v>1.043128748135938</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037294872021876</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036937642878098</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021740812134583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9936612426266269</v>
+        <v>0.993924377107163</v>
       </c>
       <c r="D9">
-        <v>1.020618073633724</v>
+        <v>1.020479598315341</v>
       </c>
       <c r="E9">
-        <v>1.002878233059603</v>
+        <v>1.003138955575783</v>
       </c>
       <c r="F9">
-        <v>1.027391290775943</v>
+        <v>1.027356045909344</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045133923133548</v>
+        <v>1.045096577791407</v>
       </c>
       <c r="J9">
-        <v>1.019439841702446</v>
+        <v>1.019693520720881</v>
       </c>
       <c r="K9">
-        <v>1.033385265011776</v>
+        <v>1.033248922332708</v>
       </c>
       <c r="L9">
-        <v>1.015924784907707</v>
+        <v>1.016181309880691</v>
       </c>
       <c r="M9">
-        <v>1.040055062915256</v>
+        <v>1.040020351700307</v>
       </c>
       <c r="N9">
-        <v>1.010262202282783</v>
+        <v>1.012422255962013</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040273285969842</v>
+        <v>1.040245814361362</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034696365037459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034610731732325</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021079645218815</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9876507754656522</v>
+        <v>0.9881805997066151</v>
       </c>
       <c r="D10">
-        <v>1.016815656130502</v>
+        <v>1.016969359773245</v>
       </c>
       <c r="E10">
-        <v>0.9977466118887288</v>
+        <v>0.9982704520762027</v>
       </c>
       <c r="F10">
-        <v>1.023491135826913</v>
+        <v>1.02367012950982</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044108408889526</v>
+        <v>1.044199889446927</v>
       </c>
       <c r="J10">
-        <v>1.016363069625575</v>
+        <v>1.016871135229994</v>
       </c>
       <c r="K10">
-        <v>1.030887794178239</v>
+        <v>1.031038840647096</v>
       </c>
       <c r="L10">
-        <v>1.012156671495336</v>
+        <v>1.01267100441947</v>
       </c>
       <c r="M10">
-        <v>1.037448820019845</v>
+        <v>1.03762477131303</v>
       </c>
       <c r="N10">
-        <v>1.009210189864626</v>
+        <v>1.011773685048352</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038262067734954</v>
+        <v>1.0384013131227</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032947349782099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033066598452452</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020630902520687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9853760157567474</v>
+        <v>0.9860382680133346</v>
       </c>
       <c r="D11">
-        <v>1.015556648094556</v>
+        <v>1.015833267655759</v>
       </c>
       <c r="E11">
-        <v>0.9958646303269549</v>
+        <v>0.9965187648293152</v>
       </c>
       <c r="F11">
-        <v>1.022609262757468</v>
+        <v>1.022882009885903</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043874074892186</v>
+        <v>1.044017530677245</v>
       </c>
       <c r="J11">
-        <v>1.015370083423368</v>
+        <v>1.016003631188646</v>
       </c>
       <c r="K11">
-        <v>1.030191033340484</v>
+        <v>1.030462643816565</v>
       </c>
       <c r="L11">
-        <v>1.010864957323279</v>
+        <v>1.011506632120558</v>
       </c>
       <c r="M11">
-        <v>1.037117036081628</v>
+        <v>1.037384932230915</v>
       </c>
       <c r="N11">
-        <v>1.00890919217217</v>
+        <v>1.011795195001947</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.038435727637277</v>
+        <v>1.038647630275275</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032487660323457</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03269536286106</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020555269862507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9846562183332869</v>
+        <v>0.9853564823307723</v>
       </c>
       <c r="D12">
-        <v>1.015225511432262</v>
+        <v>1.015534170846775</v>
       </c>
       <c r="E12">
-        <v>0.9952915125579676</v>
+        <v>0.9959829407542827</v>
       </c>
       <c r="F12">
-        <v>1.022573323850228</v>
+        <v>1.022870930700285</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043863460308023</v>
+        <v>1.044018572656483</v>
       </c>
       <c r="J12">
-        <v>1.015124455822638</v>
+        <v>1.015793777025754</v>
       </c>
       <c r="K12">
-        <v>1.030066714600483</v>
+        <v>1.030369691688573</v>
       </c>
       <c r="L12">
-        <v>1.010509479149223</v>
+        <v>1.011187508075092</v>
       </c>
       <c r="M12">
-        <v>1.03728046674169</v>
+        <v>1.037572696542513</v>
       </c>
       <c r="N12">
-        <v>1.008856421375112</v>
+        <v>1.011862326309702</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.038891350464668</v>
+        <v>1.0391224225196</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032399762403551</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032629643707606</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020565704511426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9850988563374288</v>
+        <v>0.9857544098846167</v>
       </c>
       <c r="D13">
-        <v>1.015603501136929</v>
+        <v>1.015867440613631</v>
       </c>
       <c r="E13">
-        <v>0.9956989689338818</v>
+        <v>0.9963463113518674</v>
       </c>
       <c r="F13">
-        <v>1.023209109687719</v>
+        <v>1.023472780755428</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044037273518669</v>
+        <v>1.04416982232729</v>
       </c>
       <c r="J13">
-        <v>1.01545254471761</v>
+        <v>1.016079272693281</v>
       </c>
       <c r="K13">
-        <v>1.030394694757593</v>
+        <v>1.030653795861895</v>
       </c>
       <c r="L13">
-        <v>1.010864723800702</v>
+        <v>1.011499576185603</v>
       </c>
       <c r="M13">
-        <v>1.037862182034506</v>
+        <v>1.038121112556449</v>
       </c>
       <c r="N13">
-        <v>1.008997436067111</v>
+        <v>1.011937041212946</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039627906868315</v>
+        <v>1.039832597074647</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032629155704674</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032827768806624</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020647607743045</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9859363418576129</v>
+        <v>0.9865238071090924</v>
       </c>
       <c r="D14">
-        <v>1.016190539980168</v>
+        <v>1.016389037218572</v>
       </c>
       <c r="E14">
-        <v>0.996429418976408</v>
+        <v>0.9970096840763039</v>
       </c>
       <c r="F14">
-        <v>1.023958489794027</v>
+        <v>1.024172322531159</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044242553369144</v>
+        <v>1.044344285021991</v>
       </c>
       <c r="J14">
-        <v>1.015942628282613</v>
+        <v>1.016504632654701</v>
       </c>
       <c r="K14">
-        <v>1.030830029089191</v>
+        <v>1.031024932678053</v>
       </c>
       <c r="L14">
-        <v>1.011436044553717</v>
+        <v>1.01200525778655</v>
       </c>
       <c r="M14">
-        <v>1.038458694725144</v>
+        <v>1.038668732078456</v>
       </c>
       <c r="N14">
-        <v>1.009184241542396</v>
+        <v>1.011994302775593</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040272701114196</v>
+        <v>1.040438717800239</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032938382380961</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033091738141942</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020737791776027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9863978343402929</v>
+        <v>0.9869512364877487</v>
       </c>
       <c r="D15">
-        <v>1.016495676465579</v>
+        <v>1.016661765409669</v>
       </c>
       <c r="E15">
-        <v>0.9968260024940224</v>
+        <v>0.9973727115099598</v>
       </c>
       <c r="F15">
-        <v>1.024302039912983</v>
+        <v>1.024491196651975</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044336907256155</v>
+        <v>1.044423871515184</v>
       </c>
       <c r="J15">
-        <v>1.016193047445266</v>
+        <v>1.016722675482524</v>
       </c>
       <c r="K15">
-        <v>1.031042833850855</v>
+        <v>1.031205938623689</v>
       </c>
       <c r="L15">
-        <v>1.01173576298155</v>
+        <v>1.012272141096537</v>
       </c>
       <c r="M15">
-        <v>1.038710294270069</v>
+        <v>1.038896119288818</v>
       </c>
       <c r="N15">
-        <v>1.009274303088247</v>
+        <v>1.012014667374075</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040509087168948</v>
+        <v>1.040655962194835</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033094732216646</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033226172295796</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020777936744773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9888567202848761</v>
+        <v>0.9892516120144499</v>
       </c>
       <c r="D16">
-        <v>1.018038456256013</v>
+        <v>1.018052239319109</v>
       </c>
       <c r="E16">
-        <v>0.9989149816907729</v>
+        <v>0.9993054574414104</v>
       </c>
       <c r="F16">
-        <v>1.025862877096512</v>
+        <v>1.025936709639238</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044755179046705</v>
+        <v>1.044775073100743</v>
       </c>
       <c r="J16">
-        <v>1.017441311374409</v>
+        <v>1.017820090718901</v>
       </c>
       <c r="K16">
-        <v>1.032053739198357</v>
+        <v>1.03206728537701</v>
       </c>
       <c r="L16">
-        <v>1.013267118711092</v>
+        <v>1.013650548746009</v>
       </c>
       <c r="M16">
-        <v>1.039745005211391</v>
+        <v>1.039817593759206</v>
       </c>
       <c r="N16">
-        <v>1.009695664766107</v>
+        <v>1.012101113950598</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041288219090443</v>
+        <v>1.041345594291069</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033812658546949</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033838651385419</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02094901451606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9903065516746604</v>
+        <v>0.9906247320061677</v>
       </c>
       <c r="D17">
-        <v>1.018916054193335</v>
+        <v>1.01885352902502</v>
       </c>
       <c r="E17">
-        <v>1.000138184861406</v>
+        <v>1.000452982651416</v>
       </c>
       <c r="F17">
-        <v>1.026663861847295</v>
+        <v>1.026680581411173</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044966007088568</v>
+        <v>1.044953274792368</v>
       </c>
       <c r="J17">
-        <v>1.018142399696716</v>
+        <v>1.01844801719753</v>
       </c>
       <c r="K17">
-        <v>1.032600350890468</v>
+        <v>1.032538870272634</v>
       </c>
       <c r="L17">
-        <v>1.014143791630294</v>
+        <v>1.014453074100027</v>
       </c>
       <c r="M17">
-        <v>1.040219989045686</v>
+        <v>1.040236434712464</v>
       </c>
       <c r="N17">
-        <v>1.009921018346766</v>
+        <v>1.012166906809775</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041534677325685</v>
+        <v>1.041547677548773</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034201730987684</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034174922758292</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021033825844045</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9910145818611709</v>
+        <v>0.9913085944813748</v>
       </c>
       <c r="D18">
-        <v>1.019281547802226</v>
+        <v>1.019194188449534</v>
       </c>
       <c r="E18">
-        <v>1.000716964435808</v>
+        <v>1.001007942729081</v>
       </c>
       <c r="F18">
-        <v>1.02684013983886</v>
+        <v>1.026838568241409</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045007650196586</v>
+        <v>1.04498577176731</v>
       </c>
       <c r="J18">
-        <v>1.018421398681187</v>
+        <v>1.018704022111437</v>
       </c>
       <c r="K18">
-        <v>1.032775554521733</v>
+        <v>1.032689630778959</v>
       </c>
       <c r="L18">
-        <v>1.014523333605315</v>
+        <v>1.014809300420751</v>
       </c>
       <c r="M18">
-        <v>1.040211120275907</v>
+        <v>1.040209574016734</v>
       </c>
       <c r="N18">
-        <v>1.009991963784945</v>
+        <v>1.012177896215255</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041290084245918</v>
+        <v>1.041288861680651</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034313938245944</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034268714383964</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02104366716844</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9910600189952609</v>
+        <v>0.9913702928122787</v>
       </c>
       <c r="D19">
-        <v>1.019195623225448</v>
+        <v>1.019125341984556</v>
       </c>
       <c r="E19">
-        <v>1.000720569782334</v>
+        <v>1.00102767144126</v>
       </c>
       <c r="F19">
-        <v>1.026453199215403</v>
+        <v>1.026464488418847</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044904390274177</v>
+        <v>1.04489233993254</v>
       </c>
       <c r="J19">
-        <v>1.018328444952407</v>
+        <v>1.018626771956247</v>
       </c>
       <c r="K19">
-        <v>1.032628229702188</v>
+        <v>1.032559097477654</v>
       </c>
       <c r="L19">
-        <v>1.014462400120139</v>
+        <v>1.014764241161655</v>
       </c>
       <c r="M19">
-        <v>1.039768239317467</v>
+        <v>1.039779347306784</v>
       </c>
       <c r="N19">
-        <v>1.009930644171722</v>
+        <v>1.01212438160127</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040614534587816</v>
+        <v>1.040623320098642</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034216187054761</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034183459455991</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020989658022008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9892331884996389</v>
+        <v>0.9896697264546264</v>
       </c>
       <c r="D20">
-        <v>1.017831183719427</v>
+        <v>1.017892473480295</v>
       </c>
       <c r="E20">
-        <v>0.9990988172404496</v>
+        <v>0.99953067097029</v>
       </c>
       <c r="F20">
-        <v>1.024524988097557</v>
+        <v>1.024634374845577</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.0443933617968</v>
+        <v>1.044443364964816</v>
       </c>
       <c r="J20">
-        <v>1.017185556077566</v>
+        <v>1.017604753938203</v>
       </c>
       <c r="K20">
-        <v>1.03156757586222</v>
+        <v>1.03162783613493</v>
       </c>
       <c r="L20">
-        <v>1.013157531391436</v>
+        <v>1.013581777986453</v>
       </c>
       <c r="M20">
-        <v>1.038149880677019</v>
+        <v>1.038257460923796</v>
       </c>
       <c r="N20">
-        <v>1.009494423044477</v>
+        <v>1.011876286737352</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038806331625174</v>
+        <v>1.038891470153717</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033470192681515</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033529342870888</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020753410958845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9846509765581366</v>
+        <v>0.9854070991456849</v>
       </c>
       <c r="D21">
-        <v>1.014905198562467</v>
+        <v>1.015271190941153</v>
       </c>
       <c r="E21">
-        <v>0.9951883530475198</v>
+        <v>0.9959351093567963</v>
       </c>
       <c r="F21">
-        <v>1.021449703058015</v>
+        <v>1.021791319270898</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043563462595996</v>
+        <v>1.043751439701907</v>
       </c>
       <c r="J21">
-        <v>1.014804752939429</v>
+        <v>1.015527872670329</v>
       </c>
       <c r="K21">
-        <v>1.029609584646642</v>
+        <v>1.029968908843534</v>
       </c>
       <c r="L21">
-        <v>1.01026146056742</v>
+        <v>1.010993903742453</v>
       </c>
       <c r="M21">
-        <v>1.036035788719259</v>
+        <v>1.036371283828929</v>
       </c>
       <c r="N21">
-        <v>1.008672977524609</v>
+        <v>1.011727021133211</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037092291875154</v>
+        <v>1.037357814973803</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032089049444556</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03235998191538</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020412574021019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9817288513151087</v>
+        <v>0.9826879145921416</v>
       </c>
       <c r="D22">
-        <v>1.013049934405895</v>
+        <v>1.013609692611101</v>
       </c>
       <c r="E22">
-        <v>0.9927041317611105</v>
+        <v>0.9936502604211999</v>
       </c>
       <c r="F22">
-        <v>1.019531954429168</v>
+        <v>1.020021520248169</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043031220844017</v>
+        <v>1.043307089218859</v>
       </c>
       <c r="J22">
-        <v>1.013292470813393</v>
+        <v>1.014207217250868</v>
       </c>
       <c r="K22">
-        <v>1.028367227902732</v>
+        <v>1.02891627568285</v>
       </c>
       <c r="L22">
-        <v>1.008421520125498</v>
+        <v>1.00934856517538</v>
       </c>
       <c r="M22">
-        <v>1.034726161953</v>
+        <v>1.035206514479537</v>
       </c>
       <c r="N22">
-        <v>1.008152052038208</v>
+        <v>1.011625458291642</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036055804411322</v>
+        <v>1.036435973490625</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031197087215731</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031600868774747</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020195222933996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9832739354694606</v>
+        <v>0.9841124130835215</v>
       </c>
       <c r="D23">
-        <v>1.014024878970701</v>
+        <v>1.014472682857005</v>
       </c>
       <c r="E23">
-        <v>0.9940156611598632</v>
+        <v>0.9948433232399007</v>
       </c>
       <c r="F23">
-        <v>1.020543034555371</v>
+        <v>1.020946386660443</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043309623238614</v>
+        <v>1.043534459126786</v>
       </c>
       <c r="J23">
-        <v>1.01408801784198</v>
+        <v>1.01488889503182</v>
       </c>
       <c r="K23">
-        <v>1.029017028777904</v>
+        <v>1.029456482046407</v>
       </c>
       <c r="L23">
-        <v>1.009391024010168</v>
+        <v>1.010202433699543</v>
       </c>
       <c r="M23">
-        <v>1.035414575899162</v>
+        <v>1.035810530487719</v>
       </c>
       <c r="N23">
-        <v>1.008425068698029</v>
+        <v>1.011633677141842</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036600641070408</v>
+        <v>1.036914014217588</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031646855442858</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031972206614461</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020304745016581</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9892572894892078</v>
+        <v>0.9896946831669834</v>
       </c>
       <c r="D24">
-        <v>1.017821244463232</v>
+        <v>1.017883398863022</v>
       </c>
       <c r="E24">
-        <v>0.9991124682131804</v>
+        <v>0.9995451792086341</v>
       </c>
       <c r="F24">
-        <v>1.024479507350095</v>
+        <v>1.024589590510985</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044375940734314</v>
+        <v>1.044426687380604</v>
       </c>
       <c r="J24">
-        <v>1.017175235962518</v>
+        <v>1.01759528124736</v>
       </c>
       <c r="K24">
-        <v>1.031542463724788</v>
+        <v>1.031603575427081</v>
       </c>
       <c r="L24">
-        <v>1.01315518785178</v>
+        <v>1.013580286720296</v>
       </c>
       <c r="M24">
-        <v>1.038089953472102</v>
+        <v>1.038198220752237</v>
       </c>
       <c r="N24">
-        <v>1.009485979409535</v>
+        <v>1.011866141323343</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038718031430541</v>
+        <v>1.038803717931057</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033424943410173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033482028232934</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020742807170857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.995976967324399</v>
+        <v>0.9961414286144978</v>
       </c>
       <c r="D25">
-        <v>1.022106753920853</v>
+        <v>1.021858190923102</v>
       </c>
       <c r="E25">
-        <v>1.004867190713472</v>
+        <v>1.005030271806052</v>
       </c>
       <c r="F25">
-        <v>1.028933900023944</v>
+        <v>1.028818328368154</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045534787885235</v>
+        <v>1.045448723972331</v>
       </c>
       <c r="J25">
-        <v>1.020640485252425</v>
+        <v>1.020799350524133</v>
       </c>
       <c r="K25">
-        <v>1.034371316999971</v>
+        <v>1.034126404707589</v>
       </c>
       <c r="L25">
-        <v>1.017390416776079</v>
+        <v>1.017550997957458</v>
       </c>
       <c r="M25">
-        <v>1.041099064959264</v>
+        <v>1.040985162030454</v>
       </c>
       <c r="N25">
-        <v>1.010676021403771</v>
+        <v>1.012691922459756</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04109954337587</v>
+        <v>1.041009396913961</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035422228442728</v>
+        <v>1.035262626806611</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021259761696624</v>
       </c>
     </row>
   </sheetData>
